--- a/database/industries/nasaji/netrin/product/monthly_seprated.xlsx
+++ b/database/industries/nasaji/netrin/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA0C80-DC4B-409C-B78C-2FCDB1FC0E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48753AD-DC69-4D8A-BF56-3A640BF1A7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="114">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -844,12 +844,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -904,7 +904,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1073,7 +1073,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1242,7 +1242,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1454,7 +1454,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1573,104 +1573,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>27</v>
       </c>
       <c r="X11" s="11">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>20</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>55</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>33</v>
+      </c>
+      <c r="AJ11" s="11">
         <v>27</v>
       </c>
-      <c r="Y11" s="11">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="11">
+      <c r="AK11" s="11">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>46</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>47</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>64</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>17</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>39</v>
+      </c>
+      <c r="AR11" s="11">
         <v>10</v>
       </c>
-      <c r="AA11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>15</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>20</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>55</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>43</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>32</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>27</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>92</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>46</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>47</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>74</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>64</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>17</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>39</v>
-      </c>
       <c r="AS11" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AT11" s="11">
         <v>14</v>
       </c>
       <c r="AU11" s="11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AV11" s="11">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AW11" s="11">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AX11" s="11">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AY11" s="11">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AZ11" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA11" s="11">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="BB11" s="11">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1732,53 +1732,53 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>7</v>
       </c>
       <c r="X12" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>13</v>
+      </c>
+      <c r="AE12" s="13">
         <v>7</v>
       </c>
-      <c r="Y12" s="13">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="13">
+      <c r="AF12" s="13">
         <v>6</v>
       </c>
-      <c r="AA12" s="13">
-        <v>19</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>7</v>
-      </c>
       <c r="AG12" s="13">
+        <v>26</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>23</v>
+      </c>
+      <c r="AI12" s="13">
         <v>6</v>
       </c>
-      <c r="AH12" s="13">
-        <v>26</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>23</v>
-      </c>
       <c r="AJ12" s="13">
-        <v>6</v>
-      </c>
-      <c r="AK12" s="13">
         <v>1</v>
       </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
+      <c r="AK12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>2</v>
       </c>
       <c r="AM12" s="13">
         <v>2</v>
@@ -1787,49 +1787,49 @@
         <v>2</v>
       </c>
       <c r="AO12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>6</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AZ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="13">
         <v>2</v>
       </c>
-      <c r="AP12" s="13">
-        <v>4</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>3</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>6</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>3</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>3</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>0</v>
-      </c>
       <c r="BB12" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1891,8 +1891,8 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>0</v>
       </c>
       <c r="X13" s="11">
         <v>0</v>
@@ -1918,8 +1918,8 @@
       <c r="AE13" s="11">
         <v>0</v>
       </c>
-      <c r="AF13" s="11">
-        <v>0</v>
+      <c r="AF13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG13" s="11" t="s">
         <v>58</v>
@@ -1936,59 +1936,59 @@
       <c r="AK13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL13" s="11" t="s">
-        <v>58</v>
+      <c r="AL13" s="11">
+        <v>11</v>
       </c>
       <c r="AM13" s="11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="11">
         <v>0</v>
       </c>
       <c r="AO13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AP13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT13" s="11">
         <v>7</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>10</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>6</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>3</v>
-      </c>
       <c r="AU13" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV13" s="11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX13" s="11">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AY13" s="11">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AZ13" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2050,8 +2050,8 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <v>0</v>
@@ -2077,8 +2077,8 @@
       <c r="AE14" s="13">
         <v>0</v>
       </c>
-      <c r="AF14" s="13">
-        <v>0</v>
+      <c r="AF14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG14" s="13" t="s">
         <v>58</v>
@@ -2147,7 +2147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2209,104 +2209,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>80</v>
       </c>
       <c r="X15" s="11">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="11">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="Z15" s="11">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>98</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>70</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>60</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>53</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>66</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>27</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>83</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>56</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>86</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>84</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>96</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>112</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>194</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>138</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>98</v>
+      </c>
+      <c r="AQ15" s="11">
         <v>99</v>
       </c>
-      <c r="AA15" s="11">
-        <v>44</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>98</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>70</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>60</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>53</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>66</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>27</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>83</v>
-      </c>
-      <c r="AI15" s="11">
+      <c r="AR15" s="11">
+        <v>20</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>112</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>96</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>150</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>152</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>147</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>122</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>41</v>
+      </c>
+      <c r="BA15" s="11">
         <v>56</v>
       </c>
-      <c r="AJ15" s="11">
-        <v>86</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>84</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>96</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>112</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>194</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>138</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>98</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>99</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>20</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>58</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>112</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>96</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>150</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>152</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>147</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>122</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>41</v>
-      </c>
       <c r="BB15" s="11">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2368,104 +2368,104 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>66</v>
       </c>
       <c r="X16" s="13">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="Y16" s="13">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="Z16" s="13">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="AA16" s="13">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>22</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>45</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>51</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>19</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>36</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>16</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>17</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>34</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>17</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>16</v>
+      </c>
+      <c r="AO16" s="13">
         <v>106</v>
       </c>
-      <c r="AB16" s="13">
-        <v>25</v>
-      </c>
-      <c r="AC16" s="13">
+      <c r="AP16" s="13">
+        <v>70</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>35</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>8</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>48</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>28</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>51</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>31</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>29</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>40</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>30</v>
+      </c>
+      <c r="AZ16" s="13">
         <v>22</v>
       </c>
-      <c r="AD16" s="13">
-        <v>45</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>51</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>10</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>15</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>19</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>36</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>16</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>17</v>
-      </c>
-      <c r="AL16" s="13">
+      <c r="BA16" s="13">
         <v>34</v>
       </c>
-      <c r="AM16" s="13">
-        <v>24</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>17</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>16</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>106</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>70</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>35</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>8</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>48</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>28</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>51</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>31</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>29</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>40</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>30</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>22</v>
-      </c>
       <c r="BB16" s="13">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2527,8 +2527,8 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
       </c>
       <c r="X17" s="11">
         <v>0</v>
@@ -2554,8 +2554,8 @@
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>58</v>
@@ -2624,7 +2624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2686,8 +2686,8 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
       </c>
       <c r="X18" s="13">
         <v>0</v>
@@ -2713,8 +2713,8 @@
       <c r="AE18" s="13">
         <v>0</v>
       </c>
-      <c r="AF18" s="13">
-        <v>0</v>
+      <c r="AF18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG18" s="13" t="s">
         <v>58</v>
@@ -2725,32 +2725,32 @@
       <c r="AI18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>0</v>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM18" s="13" t="s">
-        <v>58</v>
+      <c r="AM18" s="13">
+        <v>0</v>
       </c>
       <c r="AN18" s="13">
         <v>0</v>
       </c>
-      <c r="AO18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="13" t="s">
-        <v>58</v>
+      <c r="AO18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>0</v>
       </c>
       <c r="AQ18" s="13">
         <v>0</v>
       </c>
-      <c r="AR18" s="13">
-        <v>0</v>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>58</v>
@@ -2783,7 +2783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2845,8 +2845,8 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
       </c>
       <c r="X19" s="11">
         <v>0</v>
@@ -2872,8 +2872,8 @@
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>58</v>
@@ -2942,7 +2942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -3004,8 +3004,8 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
       </c>
       <c r="X20" s="13">
         <v>0</v>
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="13">
         <v>0</v>
@@ -3031,8 +3031,8 @@
       <c r="AE20" s="13">
         <v>0</v>
       </c>
-      <c r="AF20" s="13">
-        <v>0</v>
+      <c r="AF20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG20" s="13" t="s">
         <v>58</v>
@@ -3052,23 +3052,23 @@
       <c r="AL20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM20" s="13" t="s">
-        <v>58</v>
+      <c r="AM20" s="13">
+        <v>0</v>
       </c>
       <c r="AN20" s="13">
         <v>0</v>
       </c>
-      <c r="AO20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="13" t="s">
-        <v>58</v>
+      <c r="AO20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>0</v>
       </c>
       <c r="AQ20" s="13">
         <v>0</v>
       </c>
-      <c r="AR20" s="13">
-        <v>0</v>
+      <c r="AR20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>58</v>
@@ -3101,7 +3101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3163,8 +3163,8 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>0</v>
       </c>
       <c r="X21" s="11">
         <v>0</v>
@@ -3179,52 +3179,52 @@
         <v>0</v>
       </c>
       <c r="AB21" s="11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AC21" s="11">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="AD21" s="11">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="AE21" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF21" s="11">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AH21" s="11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI21" s="11">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ21" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK21" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM21" s="11">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="AN21" s="11">
-        <v>68</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>10</v>
       </c>
       <c r="AQ21" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="11">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3322,17 +3322,17 @@
       <c r="V22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="13" t="s">
-        <v>58</v>
+      <c r="W22" s="13">
+        <v>0</v>
       </c>
       <c r="X22" s="13">
         <v>0</v>
       </c>
       <c r="Y22" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="13">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG22" s="13" t="s">
         <v>58</v>
@@ -3361,32 +3361,32 @@
       <c r="AI22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK22" s="13">
-        <v>0</v>
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM22" s="13" t="s">
-        <v>58</v>
+      <c r="AM22" s="13">
+        <v>0</v>
       </c>
       <c r="AN22" s="13">
         <v>0</v>
       </c>
-      <c r="AO22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="13" t="s">
-        <v>58</v>
+      <c r="AO22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>0</v>
       </c>
       <c r="AQ22" s="13">
         <v>0</v>
       </c>
-      <c r="AR22" s="13">
-        <v>0</v>
+      <c r="AR22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>58</v>
@@ -3419,7 +3419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3481,8 +3481,8 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>0</v>
       </c>
       <c r="X23" s="11">
         <v>0</v>
@@ -3508,8 +3508,8 @@
       <c r="AE23" s="11">
         <v>0</v>
       </c>
-      <c r="AF23" s="11">
-        <v>0</v>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG23" s="11" t="s">
         <v>58</v>
@@ -3578,7 +3578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3640,8 +3640,8 @@
       <c r="V24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="13" t="s">
-        <v>58</v>
+      <c r="W24" s="13">
+        <v>0</v>
       </c>
       <c r="X24" s="13">
         <v>0</v>
@@ -3667,8 +3667,8 @@
       <c r="AE24" s="13">
         <v>0</v>
       </c>
-      <c r="AF24" s="13">
-        <v>0</v>
+      <c r="AF24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG24" s="13" t="s">
         <v>58</v>
@@ -3737,7 +3737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3799,23 +3799,23 @@
       <c r="V25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>58</v>
+      <c r="W25" s="11">
+        <v>124</v>
       </c>
       <c r="X25" s="11">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Y25" s="11">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="Z25" s="11">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AA25" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB25" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="11">
         <v>0</v>
@@ -3826,8 +3826,8 @@
       <c r="AE25" s="11">
         <v>0</v>
       </c>
-      <c r="AF25" s="11">
-        <v>0</v>
+      <c r="AF25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>58</v>
@@ -3838,32 +3838,32 @@
       <c r="AI25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>0</v>
+      <c r="AJ25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM25" s="11" t="s">
-        <v>58</v>
+      <c r="AM25" s="11">
+        <v>0</v>
       </c>
       <c r="AN25" s="11">
         <v>0</v>
       </c>
-      <c r="AO25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="11" t="s">
-        <v>58</v>
+      <c r="AO25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>0</v>
       </c>
       <c r="AQ25" s="11">
         <v>0</v>
       </c>
-      <c r="AR25" s="11">
-        <v>0</v>
+      <c r="AR25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS25" s="11" t="s">
         <v>58</v>
@@ -3896,7 +3896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3961,8 +3961,8 @@
       <c r="W26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X26" s="13" t="s">
-        <v>58</v>
+      <c r="X26" s="13">
+        <v>0</v>
       </c>
       <c r="Y26" s="13">
         <v>0</v>
@@ -3985,8 +3985,8 @@
       <c r="AE26" s="13">
         <v>0</v>
       </c>
-      <c r="AF26" s="13">
-        <v>0</v>
+      <c r="AF26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG26" s="13" t="s">
         <v>58</v>
@@ -4055,7 +4055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
@@ -4120,8 +4120,8 @@
       <c r="W27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X27" s="11" t="s">
-        <v>58</v>
+      <c r="X27" s="11">
+        <v>0</v>
       </c>
       <c r="Y27" s="11">
         <v>0</v>
@@ -4144,8 +4144,8 @@
       <c r="AE27" s="11">
         <v>0</v>
       </c>
-      <c r="AF27" s="11">
-        <v>0</v>
+      <c r="AF27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG27" s="11" t="s">
         <v>58</v>
@@ -4214,7 +4214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
@@ -4276,23 +4276,23 @@
       <c r="V28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>58</v>
+      <c r="W28" s="13">
+        <v>15</v>
       </c>
       <c r="X28" s="13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y28" s="13">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Z28" s="13">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AA28" s="13">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AB28" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="13">
         <v>0</v>
@@ -4306,8 +4306,8 @@
       <c r="AF28" s="13">
         <v>0</v>
       </c>
-      <c r="AG28" s="13">
-        <v>0</v>
+      <c r="AG28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH28" s="13" t="s">
         <v>58</v>
@@ -4315,32 +4315,32 @@
       <c r="AI28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK28" s="13">
-        <v>0</v>
+      <c r="AJ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM28" s="13" t="s">
-        <v>58</v>
+      <c r="AM28" s="13">
+        <v>0</v>
       </c>
       <c r="AN28" s="13">
         <v>0</v>
       </c>
-      <c r="AO28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="13" t="s">
-        <v>58</v>
+      <c r="AO28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>0</v>
       </c>
       <c r="AQ28" s="13">
         <v>0</v>
       </c>
-      <c r="AR28" s="13">
-        <v>0</v>
+      <c r="AR28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS28" s="13" t="s">
         <v>58</v>
@@ -4373,7 +4373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
@@ -4435,23 +4435,23 @@
       <c r="V29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>58</v>
+      <c r="W29" s="11">
+        <v>15</v>
       </c>
       <c r="X29" s="11">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="Y29" s="11">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="11">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AA29" s="11">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AB29" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
@@ -4462,8 +4462,8 @@
       <c r="AE29" s="11">
         <v>0</v>
       </c>
-      <c r="AF29" s="11">
-        <v>0</v>
+      <c r="AF29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG29" s="11" t="s">
         <v>58</v>
@@ -4474,32 +4474,32 @@
       <c r="AI29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>0</v>
+      <c r="AJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM29" s="11" t="s">
-        <v>58</v>
+      <c r="AM29" s="11">
+        <v>0</v>
       </c>
       <c r="AN29" s="11">
         <v>0</v>
       </c>
-      <c r="AO29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>58</v>
+      <c r="AO29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>0</v>
       </c>
       <c r="AQ29" s="11">
         <v>0</v>
       </c>
-      <c r="AR29" s="11">
-        <v>0</v>
+      <c r="AR29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS29" s="11" t="s">
         <v>58</v>
@@ -4532,7 +4532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>77</v>
       </c>
@@ -4606,14 +4606,14 @@
       <c r="Z30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA30" s="13" t="s">
-        <v>58</v>
+      <c r="AA30" s="13">
+        <v>40</v>
       </c>
       <c r="AB30" s="13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AC30" s="13">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="13">
         <v>0</v>
@@ -4621,8 +4621,8 @@
       <c r="AE30" s="13">
         <v>0</v>
       </c>
-      <c r="AF30" s="13">
-        <v>0</v>
+      <c r="AF30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG30" s="13" t="s">
         <v>58</v>
@@ -4642,23 +4642,23 @@
       <c r="AL30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM30" s="13" t="s">
-        <v>58</v>
+      <c r="AM30" s="13">
+        <v>0</v>
       </c>
       <c r="AN30" s="13">
         <v>0</v>
       </c>
-      <c r="AO30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="13" t="s">
-        <v>58</v>
+      <c r="AO30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>0</v>
       </c>
       <c r="AQ30" s="13">
         <v>0</v>
       </c>
-      <c r="AR30" s="13">
-        <v>0</v>
+      <c r="AR30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS30" s="13" t="s">
         <v>58</v>
@@ -4691,7 +4691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>78</v>
       </c>
@@ -4810,47 +4810,47 @@
       <c r="AO31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP31" s="11" t="s">
-        <v>58</v>
+      <c r="AP31" s="11">
+        <v>71</v>
       </c>
       <c r="AQ31" s="11">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AR31" s="11">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AS31" s="11">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="AT31" s="11">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="AU31" s="11">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="AV31" s="11">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="AW31" s="11">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="AX31" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="11">
         <v>0</v>
       </c>
       <c r="AZ31" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA31" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB31" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>79</v>
       </c>
@@ -4969,23 +4969,23 @@
       <c r="AO32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP32" s="13" t="s">
-        <v>58</v>
+      <c r="AP32" s="13">
+        <v>33</v>
       </c>
       <c r="AQ32" s="13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="AR32" s="13">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AS32" s="13">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AT32" s="13">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="AU32" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="13">
         <v>0</v>
@@ -4994,22 +4994,22 @@
         <v>0</v>
       </c>
       <c r="AX32" s="13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AY32" s="13">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ32" s="13">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="BA32" s="13">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="BB32" s="13">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>80</v>
       </c>
@@ -5071,8 +5071,8 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>0</v>
       </c>
       <c r="X33" s="11">
         <v>0</v>
@@ -5098,8 +5098,8 @@
       <c r="AE33" s="11">
         <v>0</v>
       </c>
-      <c r="AF33" s="11">
-        <v>0</v>
+      <c r="AF33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG33" s="11" t="s">
         <v>58</v>
@@ -5168,7 +5168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>81</v>
       </c>
@@ -5299,11 +5299,11 @@
       <c r="AS34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="13" t="s">
-        <v>58</v>
+      <c r="AT34" s="13">
+        <v>44</v>
       </c>
       <c r="AU34" s="13">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="13">
         <v>0</v>
@@ -5312,22 +5312,22 @@
         <v>0</v>
       </c>
       <c r="AX34" s="13">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AY34" s="13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BA34" s="13">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="BB34" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>82</v>
       </c>
@@ -5458,11 +5458,11 @@
       <c r="AS35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT35" s="11" t="s">
-        <v>58</v>
+      <c r="AT35" s="11">
+        <v>48</v>
       </c>
       <c r="AU35" s="11">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="11">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>83</v>
       </c>
@@ -5623,11 +5623,11 @@
       <c r="AU36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV36" s="13" t="s">
-        <v>58</v>
+      <c r="AV36" s="13">
+        <v>73</v>
       </c>
       <c r="AW36" s="13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="13">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>84</v>
       </c>
@@ -5785,26 +5785,26 @@
       <c r="AV37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW37" s="11" t="s">
-        <v>58</v>
+      <c r="AW37" s="11">
+        <v>42</v>
       </c>
       <c r="AX37" s="11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AY37" s="11">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AZ37" s="11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA37" s="11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BB37" s="11">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>85</v>
       </c>
@@ -5950,20 +5950,20 @@
       <c r="AX38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY38" s="13" t="s">
-        <v>58</v>
+      <c r="AY38" s="13">
+        <v>43</v>
       </c>
       <c r="AZ38" s="13">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="13">
         <v>37</v>
       </c>
-      <c r="BB38" s="13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>86</v>
       </c>
@@ -6109,20 +6109,20 @@
       <c r="AX39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY39" s="11" t="s">
-        <v>58</v>
+      <c r="AY39" s="11">
+        <v>44</v>
       </c>
       <c r="AZ39" s="11">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="BA39" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BB39" s="11">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>87</v>
       </c>
@@ -6271,17 +6271,17 @@
       <c r="AY40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ40" s="13" t="s">
-        <v>58</v>
+      <c r="AZ40" s="13">
+        <v>3</v>
       </c>
       <c r="BA40" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB40" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>88</v>
       </c>
@@ -6433,14 +6433,14 @@
       <c r="AZ41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA41" s="11" t="s">
-        <v>58</v>
+      <c r="BA41" s="11">
+        <v>23</v>
       </c>
       <c r="BB41" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>89</v>
       </c>
@@ -6501,103 +6501,103 @@
         <v>0</v>
       </c>
       <c r="W42" s="15">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="X42" s="15">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="Y42" s="15">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="Z42" s="15">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AA42" s="15">
+        <v>248</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>214</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>206</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>181</v>
+      </c>
+      <c r="AE42" s="15">
+        <v>170</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>60</v>
+      </c>
+      <c r="AG42" s="15">
+        <v>196</v>
+      </c>
+      <c r="AH42" s="15">
+        <v>167</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>170</v>
+      </c>
+      <c r="AJ42" s="15">
+        <v>163</v>
+      </c>
+      <c r="AK42" s="15">
+        <v>210</v>
+      </c>
+      <c r="AL42" s="15">
+        <v>200</v>
+      </c>
+      <c r="AM42" s="15">
+        <v>246</v>
+      </c>
+      <c r="AN42" s="15">
+        <v>286</v>
+      </c>
+      <c r="AO42" s="15">
+        <v>319</v>
+      </c>
+      <c r="AP42" s="15">
+        <v>301</v>
+      </c>
+      <c r="AQ42" s="15">
+        <v>310</v>
+      </c>
+      <c r="AR42" s="15">
+        <v>123</v>
+      </c>
+      <c r="AS42" s="15">
+        <v>285</v>
+      </c>
+      <c r="AT42" s="15">
+        <v>340</v>
+      </c>
+      <c r="AU42" s="15">
+        <v>282</v>
+      </c>
+      <c r="AV42" s="15">
+        <v>352</v>
+      </c>
+      <c r="AW42" s="15">
         <v>283</v>
       </c>
-      <c r="AB42" s="15">
-        <v>248</v>
-      </c>
-      <c r="AC42" s="15">
-        <v>214</v>
-      </c>
-      <c r="AD42" s="15">
-        <v>206</v>
-      </c>
-      <c r="AE42" s="15">
-        <v>181</v>
-      </c>
-      <c r="AF42" s="15">
-        <v>170</v>
-      </c>
-      <c r="AG42" s="15">
-        <v>60</v>
-      </c>
-      <c r="AH42" s="15">
-        <v>196</v>
-      </c>
-      <c r="AI42" s="15">
-        <v>167</v>
-      </c>
-      <c r="AJ42" s="15">
-        <v>170</v>
-      </c>
-      <c r="AK42" s="15">
-        <v>163</v>
-      </c>
-      <c r="AL42" s="15">
-        <v>210</v>
-      </c>
-      <c r="AM42" s="15">
-        <v>200</v>
-      </c>
-      <c r="AN42" s="15">
-        <v>246</v>
-      </c>
-      <c r="AO42" s="15">
-        <v>286</v>
-      </c>
-      <c r="AP42" s="15">
-        <v>319</v>
-      </c>
-      <c r="AQ42" s="15">
-        <v>301</v>
-      </c>
-      <c r="AR42" s="15">
-        <v>310</v>
-      </c>
-      <c r="AS42" s="15">
-        <v>123</v>
-      </c>
-      <c r="AT42" s="15">
-        <v>285</v>
-      </c>
-      <c r="AU42" s="15">
-        <v>340</v>
-      </c>
-      <c r="AV42" s="15">
+      <c r="AX42" s="15">
+        <v>407</v>
+      </c>
+      <c r="AY42" s="15">
+        <v>323</v>
+      </c>
+      <c r="AZ42" s="15">
+        <v>268</v>
+      </c>
+      <c r="BA42" s="15">
         <v>282</v>
       </c>
-      <c r="AW42" s="15">
-        <v>352</v>
-      </c>
-      <c r="AX42" s="15">
-        <v>283</v>
-      </c>
-      <c r="AY42" s="15">
-        <v>407</v>
-      </c>
-      <c r="AZ42" s="15">
-        <v>323</v>
-      </c>
-      <c r="BA42" s="15">
-        <v>268</v>
-      </c>
       <c r="BB42" s="15">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>90</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
@@ -6788,11 +6788,11 @@
       <c r="AT44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU44" s="11" t="s">
-        <v>58</v>
+      <c r="AU44" s="11">
+        <v>8</v>
       </c>
       <c r="AV44" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="11">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>62</v>
       </c>
@@ -6947,11 +6947,11 @@
       <c r="AT45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU45" s="13" t="s">
-        <v>58</v>
+      <c r="AU45" s="13">
+        <v>48</v>
       </c>
       <c r="AV45" s="13">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="13">
         <v>0</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>91</v>
       </c>
@@ -7105,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="17">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AV46" s="17">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="17">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>92</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="BA47" s="19"/>
       <c r="BB47" s="19"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>93</v>
       </c>
@@ -7246,8 +7246,8 @@
       <c r="V48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="17" t="s">
-        <v>58</v>
+      <c r="W48" s="17">
+        <v>0</v>
       </c>
       <c r="X48" s="17">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>94</v>
       </c>
@@ -7404,103 +7404,103 @@
         <v>0</v>
       </c>
       <c r="W49" s="15">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="X49" s="15">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="Y49" s="15">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="Z49" s="15">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AA49" s="15">
+        <v>248</v>
+      </c>
+      <c r="AB49" s="15">
+        <v>214</v>
+      </c>
+      <c r="AC49" s="15">
+        <v>206</v>
+      </c>
+      <c r="AD49" s="15">
+        <v>181</v>
+      </c>
+      <c r="AE49" s="15">
+        <v>170</v>
+      </c>
+      <c r="AF49" s="15">
+        <v>60</v>
+      </c>
+      <c r="AG49" s="15">
+        <v>196</v>
+      </c>
+      <c r="AH49" s="15">
+        <v>167</v>
+      </c>
+      <c r="AI49" s="15">
+        <v>170</v>
+      </c>
+      <c r="AJ49" s="15">
+        <v>163</v>
+      </c>
+      <c r="AK49" s="15">
+        <v>210</v>
+      </c>
+      <c r="AL49" s="15">
+        <v>200</v>
+      </c>
+      <c r="AM49" s="15">
+        <v>246</v>
+      </c>
+      <c r="AN49" s="15">
+        <v>286</v>
+      </c>
+      <c r="AO49" s="15">
+        <v>319</v>
+      </c>
+      <c r="AP49" s="15">
+        <v>301</v>
+      </c>
+      <c r="AQ49" s="15">
+        <v>310</v>
+      </c>
+      <c r="AR49" s="15">
+        <v>123</v>
+      </c>
+      <c r="AS49" s="15">
+        <v>285</v>
+      </c>
+      <c r="AT49" s="15">
+        <v>340</v>
+      </c>
+      <c r="AU49" s="15">
+        <v>338</v>
+      </c>
+      <c r="AV49" s="15">
+        <v>352</v>
+      </c>
+      <c r="AW49" s="15">
         <v>283</v>
       </c>
-      <c r="AB49" s="15">
-        <v>248</v>
-      </c>
-      <c r="AC49" s="15">
-        <v>214</v>
-      </c>
-      <c r="AD49" s="15">
-        <v>206</v>
-      </c>
-      <c r="AE49" s="15">
-        <v>181</v>
-      </c>
-      <c r="AF49" s="15">
-        <v>170</v>
-      </c>
-      <c r="AG49" s="15">
-        <v>60</v>
-      </c>
-      <c r="AH49" s="15">
-        <v>196</v>
-      </c>
-      <c r="AI49" s="15">
-        <v>167</v>
-      </c>
-      <c r="AJ49" s="15">
-        <v>170</v>
-      </c>
-      <c r="AK49" s="15">
-        <v>163</v>
-      </c>
-      <c r="AL49" s="15">
-        <v>210</v>
-      </c>
-      <c r="AM49" s="15">
-        <v>200</v>
-      </c>
-      <c r="AN49" s="15">
-        <v>246</v>
-      </c>
-      <c r="AO49" s="15">
-        <v>286</v>
-      </c>
-      <c r="AP49" s="15">
-        <v>319</v>
-      </c>
-      <c r="AQ49" s="15">
-        <v>301</v>
-      </c>
-      <c r="AR49" s="15">
-        <v>310</v>
-      </c>
-      <c r="AS49" s="15">
-        <v>123</v>
-      </c>
-      <c r="AT49" s="15">
-        <v>285</v>
-      </c>
-      <c r="AU49" s="15">
-        <v>340</v>
-      </c>
-      <c r="AV49" s="15">
-        <v>338</v>
-      </c>
-      <c r="AW49" s="15">
-        <v>352</v>
-      </c>
       <c r="AX49" s="15">
-        <v>283</v>
+        <v>407</v>
       </c>
       <c r="AY49" s="15">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="AZ49" s="15">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="BA49" s="15">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="BB49" s="15">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -7555,7 +7555,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -7610,7 +7610,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7665,7 +7665,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>95</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7877,7 +7877,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>96</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
@@ -7996,104 +7996,104 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>27</v>
       </c>
       <c r="X56" s="11">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Y56" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>15</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>20</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>18</v>
+      </c>
+      <c r="AD56" s="11">
+        <v>24</v>
+      </c>
+      <c r="AE56" s="11">
+        <v>47</v>
+      </c>
+      <c r="AF56" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="11">
+        <v>25</v>
+      </c>
+      <c r="AH56" s="11">
         <v>33</v>
       </c>
-      <c r="Z56" s="11">
+      <c r="AI56" s="11">
+        <v>40</v>
+      </c>
+      <c r="AJ56" s="11">
+        <v>43</v>
+      </c>
+      <c r="AK56" s="11">
+        <v>85</v>
+      </c>
+      <c r="AL56" s="11">
+        <v>45</v>
+      </c>
+      <c r="AM56" s="11">
+        <v>54</v>
+      </c>
+      <c r="AN56" s="11">
+        <v>63</v>
+      </c>
+      <c r="AO56" s="11">
+        <v>52</v>
+      </c>
+      <c r="AP56" s="11">
+        <v>11</v>
+      </c>
+      <c r="AQ56" s="11">
+        <v>21</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS56" s="11">
         <v>10</v>
       </c>
-      <c r="AA56" s="11">
-        <v>12</v>
-      </c>
-      <c r="AB56" s="11">
-        <v>15</v>
-      </c>
-      <c r="AC56" s="11">
+      <c r="AT56" s="11">
+        <v>22</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>7</v>
+      </c>
+      <c r="AV56" s="11">
+        <v>41</v>
+      </c>
+      <c r="AW56" s="11">
+        <v>63</v>
+      </c>
+      <c r="AX56" s="11">
         <v>20</v>
       </c>
-      <c r="AD56" s="11">
-        <v>18</v>
-      </c>
-      <c r="AE56" s="11">
-        <v>24</v>
-      </c>
-      <c r="AF56" s="11">
+      <c r="AY56" s="11">
+        <v>30</v>
+      </c>
+      <c r="AZ56" s="11">
         <v>47</v>
       </c>
-      <c r="AG56" s="11">
-        <v>2</v>
-      </c>
-      <c r="AH56" s="11">
-        <v>25</v>
-      </c>
-      <c r="AI56" s="11">
+      <c r="BA56" s="11">
+        <v>48</v>
+      </c>
+      <c r="BB56" s="11">
         <v>33</v>
       </c>
-      <c r="AJ56" s="11">
-        <v>40</v>
-      </c>
-      <c r="AK56" s="11">
-        <v>43</v>
-      </c>
-      <c r="AL56" s="11">
-        <v>85</v>
-      </c>
-      <c r="AM56" s="11">
-        <v>45</v>
-      </c>
-      <c r="AN56" s="11">
-        <v>54</v>
-      </c>
-      <c r="AO56" s="11">
-        <v>63</v>
-      </c>
-      <c r="AP56" s="11">
-        <v>52</v>
-      </c>
-      <c r="AQ56" s="11">
-        <v>11</v>
-      </c>
-      <c r="AR56" s="11">
-        <v>21</v>
-      </c>
-      <c r="AS56" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT56" s="11">
-        <v>10</v>
-      </c>
-      <c r="AU56" s="11">
-        <v>22</v>
-      </c>
-      <c r="AV56" s="11">
-        <v>7</v>
-      </c>
-      <c r="AW56" s="11">
-        <v>41</v>
-      </c>
-      <c r="AX56" s="11">
-        <v>63</v>
-      </c>
-      <c r="AY56" s="11">
-        <v>20</v>
-      </c>
-      <c r="AZ56" s="11">
-        <v>30</v>
-      </c>
-      <c r="BA56" s="11">
-        <v>47</v>
-      </c>
-      <c r="BB56" s="11">
-        <v>48</v>
-      </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>59</v>
       </c>
@@ -8155,53 +8155,53 @@
       <c r="V57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>58</v>
+      <c r="W57" s="13">
+        <v>7</v>
       </c>
       <c r="X57" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="13">
+        <v>6</v>
+      </c>
+      <c r="Z57" s="13">
+        <v>19</v>
+      </c>
+      <c r="AA57" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>15</v>
+      </c>
+      <c r="AC57" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD57" s="13">
+        <v>13</v>
+      </c>
+      <c r="AE57" s="13">
         <v>7</v>
       </c>
-      <c r="Y57" s="13">
-        <v>20</v>
-      </c>
-      <c r="Z57" s="13">
+      <c r="AF57" s="13">
         <v>6</v>
       </c>
-      <c r="AA57" s="13">
-        <v>19</v>
-      </c>
-      <c r="AB57" s="13">
-        <v>12</v>
-      </c>
-      <c r="AC57" s="13">
-        <v>15</v>
-      </c>
-      <c r="AD57" s="13">
-        <v>12</v>
-      </c>
-      <c r="AE57" s="13">
-        <v>13</v>
-      </c>
-      <c r="AF57" s="13">
-        <v>7</v>
-      </c>
       <c r="AG57" s="13">
+        <v>26</v>
+      </c>
+      <c r="AH57" s="13">
+        <v>23</v>
+      </c>
+      <c r="AI57" s="13">
         <v>6</v>
       </c>
-      <c r="AH57" s="13">
-        <v>26</v>
-      </c>
-      <c r="AI57" s="13">
-        <v>23</v>
-      </c>
       <c r="AJ57" s="13">
-        <v>6</v>
-      </c>
-      <c r="AK57" s="13">
         <v>1</v>
       </c>
-      <c r="AL57" s="13" t="s">
-        <v>58</v>
+      <c r="AK57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL57" s="13">
+        <v>2</v>
       </c>
       <c r="AM57" s="13">
         <v>2</v>
@@ -8210,49 +8210,49 @@
         <v>2</v>
       </c>
       <c r="AO57" s="13">
+        <v>4</v>
+      </c>
+      <c r="AP57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS57" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT57" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="13">
+        <v>3</v>
+      </c>
+      <c r="AV57" s="13">
+        <v>6</v>
+      </c>
+      <c r="AW57" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="13">
+        <v>3</v>
+      </c>
+      <c r="AZ57" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="13">
         <v>2</v>
       </c>
-      <c r="AP57" s="13">
-        <v>4</v>
-      </c>
-      <c r="AQ57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT57" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU57" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV57" s="13">
-        <v>3</v>
-      </c>
-      <c r="AW57" s="13">
-        <v>6</v>
-      </c>
-      <c r="AX57" s="13">
-        <v>3</v>
-      </c>
-      <c r="AY57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ57" s="13">
-        <v>3</v>
-      </c>
-      <c r="BA57" s="13">
-        <v>0</v>
-      </c>
       <c r="BB57" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
@@ -8314,8 +8314,8 @@
       <c r="V58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="11" t="s">
-        <v>58</v>
+      <c r="W58" s="11">
+        <v>0</v>
       </c>
       <c r="X58" s="11">
         <v>0</v>
@@ -8341,8 +8341,8 @@
       <c r="AE58" s="11">
         <v>0</v>
       </c>
-      <c r="AF58" s="11">
-        <v>0</v>
+      <c r="AF58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG58" s="11" t="s">
         <v>58</v>
@@ -8359,59 +8359,59 @@
       <c r="AK58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL58" s="11" t="s">
-        <v>58</v>
+      <c r="AL58" s="11">
+        <v>10</v>
       </c>
       <c r="AM58" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AN58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AP58" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ58" s="11">
+        <v>9</v>
+      </c>
+      <c r="AR58" s="11">
         <v>7</v>
       </c>
-      <c r="AQ58" s="11">
-        <v>2</v>
-      </c>
-      <c r="AR58" s="11">
-        <v>9</v>
-      </c>
       <c r="AS58" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT58" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU58" s="11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV58" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AW58" s="11">
         <v>6</v>
       </c>
       <c r="AX58" s="11">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AY58" s="11">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AZ58" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA58" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>61</v>
       </c>
@@ -8473,8 +8473,8 @@
       <c r="V59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="13" t="s">
-        <v>58</v>
+      <c r="W59" s="13">
+        <v>0</v>
       </c>
       <c r="X59" s="13">
         <v>0</v>
@@ -8500,8 +8500,8 @@
       <c r="AE59" s="13">
         <v>0</v>
       </c>
-      <c r="AF59" s="13">
-        <v>0</v>
+      <c r="AF59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG59" s="13" t="s">
         <v>58</v>
@@ -8570,7 +8570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>62</v>
       </c>
@@ -8632,104 +8632,104 @@
       <c r="V60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>58</v>
+      <c r="W60" s="11">
+        <v>69</v>
       </c>
       <c r="X60" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y60" s="11">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="Z60" s="11">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="AA60" s="11">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AB60" s="11">
+        <v>77</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>64</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>62</v>
+      </c>
+      <c r="AE60" s="11">
+        <v>58</v>
+      </c>
+      <c r="AF60" s="11">
+        <v>44</v>
+      </c>
+      <c r="AG60" s="11">
+        <v>78</v>
+      </c>
+      <c r="AH60" s="11">
+        <v>61</v>
+      </c>
+      <c r="AI60" s="11">
+        <v>78</v>
+      </c>
+      <c r="AJ60" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK60" s="11">
+        <v>85</v>
+      </c>
+      <c r="AL60" s="11">
+        <v>92</v>
+      </c>
+      <c r="AM60" s="11">
+        <v>110</v>
+      </c>
+      <c r="AN60" s="11">
+        <v>193</v>
+      </c>
+      <c r="AO60" s="11">
+        <v>121</v>
+      </c>
+      <c r="AP60" s="11">
         <v>86</v>
       </c>
-      <c r="AC60" s="11">
-        <v>77</v>
-      </c>
-      <c r="AD60" s="11">
-        <v>64</v>
-      </c>
-      <c r="AE60" s="11">
-        <v>62</v>
-      </c>
-      <c r="AF60" s="11">
-        <v>58</v>
-      </c>
-      <c r="AG60" s="11">
-        <v>44</v>
-      </c>
-      <c r="AH60" s="11">
-        <v>78</v>
-      </c>
-      <c r="AI60" s="11">
-        <v>61</v>
-      </c>
-      <c r="AJ60" s="11">
-        <v>78</v>
-      </c>
-      <c r="AK60" s="11">
-        <v>87</v>
-      </c>
-      <c r="AL60" s="11">
-        <v>85</v>
-      </c>
-      <c r="AM60" s="11">
-        <v>92</v>
-      </c>
-      <c r="AN60" s="11">
-        <v>110</v>
-      </c>
-      <c r="AO60" s="11">
-        <v>193</v>
-      </c>
-      <c r="AP60" s="11">
-        <v>121</v>
-      </c>
       <c r="AQ60" s="11">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AR60" s="11">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="AS60" s="11">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="AT60" s="11">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AU60" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV60" s="11">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AW60" s="11">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AX60" s="11">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="AY60" s="11">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AZ60" s="11">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="BA60" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BB60" s="11">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>63</v>
       </c>
@@ -8791,104 +8791,104 @@
       <c r="V61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="13" t="s">
-        <v>58</v>
+      <c r="W61" s="13">
+        <v>60</v>
       </c>
       <c r="X61" s="13">
+        <v>37</v>
+      </c>
+      <c r="Y61" s="13">
+        <v>90</v>
+      </c>
+      <c r="Z61" s="13">
+        <v>87</v>
+      </c>
+      <c r="AA61" s="13">
+        <v>36</v>
+      </c>
+      <c r="AB61" s="13">
+        <v>32</v>
+      </c>
+      <c r="AC61" s="13">
+        <v>64</v>
+      </c>
+      <c r="AD61" s="13">
         <v>60</v>
       </c>
-      <c r="Y61" s="13">
+      <c r="AE61" s="13">
+        <v>34</v>
+      </c>
+      <c r="AF61" s="13">
+        <v>16</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>27</v>
+      </c>
+      <c r="AH61" s="13">
+        <v>32</v>
+      </c>
+      <c r="AI61" s="13">
+        <v>20</v>
+      </c>
+      <c r="AJ61" s="13">
+        <v>15</v>
+      </c>
+      <c r="AK61" s="13">
+        <v>29</v>
+      </c>
+      <c r="AL61" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM61" s="13">
+        <v>17</v>
+      </c>
+      <c r="AN61" s="13">
+        <v>20</v>
+      </c>
+      <c r="AO61" s="13">
+        <v>99</v>
+      </c>
+      <c r="AP61" s="13">
+        <v>67</v>
+      </c>
+      <c r="AQ61" s="13">
+        <v>28</v>
+      </c>
+      <c r="AR61" s="13">
+        <v>16</v>
+      </c>
+      <c r="AS61" s="13">
+        <v>35</v>
+      </c>
+      <c r="AT61" s="13">
+        <v>33</v>
+      </c>
+      <c r="AU61" s="13">
+        <v>48</v>
+      </c>
+      <c r="AV61" s="13">
+        <v>30</v>
+      </c>
+      <c r="AW61" s="13">
+        <v>32</v>
+      </c>
+      <c r="AX61" s="13">
+        <v>19</v>
+      </c>
+      <c r="AY61" s="13">
+        <v>27</v>
+      </c>
+      <c r="AZ61" s="13">
+        <v>31</v>
+      </c>
+      <c r="BA61" s="13">
         <v>37</v>
       </c>
-      <c r="Z61" s="13">
-        <v>90</v>
-      </c>
-      <c r="AA61" s="13">
-        <v>87</v>
-      </c>
-      <c r="AB61" s="13">
-        <v>36</v>
-      </c>
-      <c r="AC61" s="13">
-        <v>32</v>
-      </c>
-      <c r="AD61" s="13">
-        <v>64</v>
-      </c>
-      <c r="AE61" s="13">
-        <v>60</v>
-      </c>
-      <c r="AF61" s="13">
-        <v>34</v>
-      </c>
-      <c r="AG61" s="13">
-        <v>16</v>
-      </c>
-      <c r="AH61" s="13">
+      <c r="BB61" s="13">
         <v>27</v>
       </c>
-      <c r="AI61" s="13">
-        <v>32</v>
-      </c>
-      <c r="AJ61" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK61" s="13">
-        <v>15</v>
-      </c>
-      <c r="AL61" s="13">
-        <v>29</v>
-      </c>
-      <c r="AM61" s="13">
-        <v>25</v>
-      </c>
-      <c r="AN61" s="13">
-        <v>17</v>
-      </c>
-      <c r="AO61" s="13">
-        <v>20</v>
-      </c>
-      <c r="AP61" s="13">
-        <v>99</v>
-      </c>
-      <c r="AQ61" s="13">
-        <v>67</v>
-      </c>
-      <c r="AR61" s="13">
-        <v>28</v>
-      </c>
-      <c r="AS61" s="13">
-        <v>16</v>
-      </c>
-      <c r="AT61" s="13">
-        <v>35</v>
-      </c>
-      <c r="AU61" s="13">
-        <v>33</v>
-      </c>
-      <c r="AV61" s="13">
-        <v>48</v>
-      </c>
-      <c r="AW61" s="13">
-        <v>30</v>
-      </c>
-      <c r="AX61" s="13">
-        <v>32</v>
-      </c>
-      <c r="AY61" s="13">
-        <v>19</v>
-      </c>
-      <c r="AZ61" s="13">
-        <v>27</v>
-      </c>
-      <c r="BA61" s="13">
-        <v>31</v>
-      </c>
-      <c r="BB61" s="13">
-        <v>37</v>
-      </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>64</v>
       </c>
@@ -8950,8 +8950,8 @@
       <c r="V62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="11" t="s">
-        <v>58</v>
+      <c r="W62" s="11">
+        <v>0</v>
       </c>
       <c r="X62" s="11">
         <v>0</v>
@@ -8977,8 +8977,8 @@
       <c r="AE62" s="11">
         <v>0</v>
       </c>
-      <c r="AF62" s="11">
-        <v>0</v>
+      <c r="AF62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG62" s="11" t="s">
         <v>58</v>
@@ -9047,7 +9047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>65</v>
       </c>
@@ -9109,8 +9109,8 @@
       <c r="V63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="13" t="s">
-        <v>58</v>
+      <c r="W63" s="13">
+        <v>0</v>
       </c>
       <c r="X63" s="13">
         <v>0</v>
@@ -9136,8 +9136,8 @@
       <c r="AE63" s="13">
         <v>0</v>
       </c>
-      <c r="AF63" s="13">
-        <v>0</v>
+      <c r="AF63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG63" s="13" t="s">
         <v>58</v>
@@ -9148,32 +9148,32 @@
       <c r="AI63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK63" s="13">
-        <v>0</v>
+      <c r="AJ63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM63" s="13" t="s">
-        <v>58</v>
+      <c r="AM63" s="13">
+        <v>0</v>
       </c>
       <c r="AN63" s="13">
         <v>0</v>
       </c>
-      <c r="AO63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP63" s="13" t="s">
-        <v>58</v>
+      <c r="AO63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP63" s="13">
+        <v>0</v>
       </c>
       <c r="AQ63" s="13">
         <v>0</v>
       </c>
-      <c r="AR63" s="13">
-        <v>0</v>
+      <c r="AR63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS63" s="13" t="s">
         <v>58</v>
@@ -9206,7 +9206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>66</v>
       </c>
@@ -9268,8 +9268,8 @@
       <c r="V64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>58</v>
+      <c r="W64" s="11">
+        <v>0</v>
       </c>
       <c r="X64" s="11">
         <v>0</v>
@@ -9295,8 +9295,8 @@
       <c r="AE64" s="11">
         <v>0</v>
       </c>
-      <c r="AF64" s="11">
-        <v>0</v>
+      <c r="AF64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG64" s="11" t="s">
         <v>58</v>
@@ -9365,7 +9365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>67</v>
       </c>
@@ -9427,8 +9427,8 @@
       <c r="V65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>58</v>
+      <c r="W65" s="13">
+        <v>0</v>
       </c>
       <c r="X65" s="13">
         <v>0</v>
@@ -9437,10 +9437,10 @@
         <v>0</v>
       </c>
       <c r="Z65" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA65" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="13">
         <v>0</v>
@@ -9454,8 +9454,8 @@
       <c r="AE65" s="13">
         <v>0</v>
       </c>
-      <c r="AF65" s="13">
-        <v>0</v>
+      <c r="AF65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG65" s="13" t="s">
         <v>58</v>
@@ -9475,23 +9475,23 @@
       <c r="AL65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM65" s="13" t="s">
-        <v>58</v>
+      <c r="AM65" s="13">
+        <v>0</v>
       </c>
       <c r="AN65" s="13">
         <v>0</v>
       </c>
-      <c r="AO65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="13" t="s">
-        <v>58</v>
+      <c r="AO65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP65" s="13">
+        <v>0</v>
       </c>
       <c r="AQ65" s="13">
         <v>0</v>
       </c>
-      <c r="AR65" s="13">
-        <v>0</v>
+      <c r="AR65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS65" s="13" t="s">
         <v>58</v>
@@ -9524,7 +9524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>68</v>
       </c>
@@ -9586,8 +9586,8 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>0</v>
       </c>
       <c r="X66" s="11">
         <v>0</v>
@@ -9602,52 +9602,52 @@
         <v>0</v>
       </c>
       <c r="AB66" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC66" s="11">
+        <v>81</v>
+      </c>
+      <c r="AD66" s="11">
+        <v>35</v>
+      </c>
+      <c r="AE66" s="11">
+        <v>23</v>
+      </c>
+      <c r="AF66" s="11">
+        <v>12</v>
+      </c>
+      <c r="AG66" s="11">
+        <v>21</v>
+      </c>
+      <c r="AH66" s="11">
+        <v>24</v>
+      </c>
+      <c r="AI66" s="11">
         <v>29</v>
       </c>
-      <c r="AD66" s="11">
-        <v>81</v>
-      </c>
-      <c r="AE66" s="11">
-        <v>35</v>
-      </c>
-      <c r="AF66" s="11">
-        <v>23</v>
-      </c>
-      <c r="AG66" s="11">
-        <v>12</v>
-      </c>
-      <c r="AH66" s="11">
+      <c r="AJ66" s="11">
+        <v>24</v>
+      </c>
+      <c r="AK66" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL66" s="11">
         <v>21</v>
       </c>
-      <c r="AI66" s="11">
-        <v>24</v>
-      </c>
-      <c r="AJ66" s="11">
-        <v>29</v>
-      </c>
-      <c r="AK66" s="11">
-        <v>24</v>
-      </c>
-      <c r="AL66" s="11">
-        <v>4</v>
-      </c>
       <c r="AM66" s="11">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="AN66" s="11">
-        <v>68</v>
-      </c>
-      <c r="AO66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP66" s="11">
+        <v>10</v>
       </c>
       <c r="AQ66" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="11">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>69</v>
       </c>
@@ -9745,35 +9745,35 @@
       <c r="V67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="13" t="s">
-        <v>58</v>
+      <c r="W67" s="13">
+        <v>0</v>
       </c>
       <c r="X67" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y67" s="13">
+        <v>12</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="13">
         <v>6</v>
       </c>
-      <c r="Z67" s="13">
-        <v>12</v>
-      </c>
-      <c r="AA67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="13">
-        <v>0</v>
-      </c>
       <c r="AE67" s="13">
-        <v>6</v>
-      </c>
-      <c r="AF67" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG67" s="13" t="s">
         <v>58</v>
@@ -9784,32 +9784,32 @@
       <c r="AI67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK67" s="13">
-        <v>0</v>
+      <c r="AJ67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM67" s="13" t="s">
-        <v>58</v>
+      <c r="AM67" s="13">
+        <v>0</v>
       </c>
       <c r="AN67" s="13">
         <v>0</v>
       </c>
-      <c r="AO67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP67" s="13" t="s">
-        <v>58</v>
+      <c r="AO67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP67" s="13">
+        <v>0</v>
       </c>
       <c r="AQ67" s="13">
         <v>0</v>
       </c>
-      <c r="AR67" s="13">
-        <v>0</v>
+      <c r="AR67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS67" s="13" t="s">
         <v>58</v>
@@ -9842,7 +9842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>70</v>
       </c>
@@ -9904,8 +9904,8 @@
       <c r="V68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="11" t="s">
-        <v>58</v>
+      <c r="W68" s="11">
+        <v>0</v>
       </c>
       <c r="X68" s="11">
         <v>0</v>
@@ -9931,8 +9931,8 @@
       <c r="AE68" s="11">
         <v>0</v>
       </c>
-      <c r="AF68" s="11">
-        <v>0</v>
+      <c r="AF68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG68" s="11" t="s">
         <v>58</v>
@@ -10001,7 +10001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>71</v>
       </c>
@@ -10063,8 +10063,8 @@
       <c r="V69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="13" t="s">
-        <v>58</v>
+      <c r="W69" s="13">
+        <v>0</v>
       </c>
       <c r="X69" s="13">
         <v>0</v>
@@ -10090,8 +10090,8 @@
       <c r="AE69" s="13">
         <v>0</v>
       </c>
-      <c r="AF69" s="13">
-        <v>0</v>
+      <c r="AF69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG69" s="13" t="s">
         <v>58</v>
@@ -10160,7 +10160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>72</v>
       </c>
@@ -10222,23 +10222,23 @@
       <c r="V70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="11" t="s">
-        <v>58</v>
+      <c r="W70" s="11">
+        <v>117</v>
       </c>
       <c r="X70" s="11">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Y70" s="11">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="Z70" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA70" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB70" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="11">
         <v>0</v>
@@ -10249,8 +10249,8 @@
       <c r="AE70" s="11">
         <v>0</v>
       </c>
-      <c r="AF70" s="11">
-        <v>0</v>
+      <c r="AF70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG70" s="11" t="s">
         <v>58</v>
@@ -10261,32 +10261,32 @@
       <c r="AI70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK70" s="11">
-        <v>0</v>
+      <c r="AJ70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM70" s="11" t="s">
-        <v>58</v>
+      <c r="AM70" s="11">
+        <v>0</v>
       </c>
       <c r="AN70" s="11">
         <v>0</v>
       </c>
-      <c r="AO70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP70" s="11" t="s">
-        <v>58</v>
+      <c r="AO70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP70" s="11">
+        <v>0</v>
       </c>
       <c r="AQ70" s="11">
         <v>0</v>
       </c>
-      <c r="AR70" s="11">
-        <v>0</v>
+      <c r="AR70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS70" s="11" t="s">
         <v>58</v>
@@ -10319,7 +10319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>73</v>
       </c>
@@ -10384,8 +10384,8 @@
       <c r="W71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X71" s="13" t="s">
-        <v>58</v>
+      <c r="X71" s="13">
+        <v>0</v>
       </c>
       <c r="Y71" s="13">
         <v>0</v>
@@ -10408,8 +10408,8 @@
       <c r="AE71" s="13">
         <v>0</v>
       </c>
-      <c r="AF71" s="13">
-        <v>0</v>
+      <c r="AF71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG71" s="13" t="s">
         <v>58</v>
@@ -10478,7 +10478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>74</v>
       </c>
@@ -10543,8 +10543,8 @@
       <c r="W72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X72" s="11" t="s">
-        <v>58</v>
+      <c r="X72" s="11">
+        <v>0</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
@@ -10567,8 +10567,8 @@
       <c r="AE72" s="11">
         <v>0</v>
       </c>
-      <c r="AF72" s="11">
-        <v>0</v>
+      <c r="AF72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG72" s="11" t="s">
         <v>58</v>
@@ -10637,7 +10637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>75</v>
       </c>
@@ -10699,23 +10699,23 @@
       <c r="V73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="13" t="s">
-        <v>58</v>
+      <c r="W73" s="13">
+        <v>10</v>
       </c>
       <c r="X73" s="13">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Y73" s="13">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z73" s="13">
+        <v>24</v>
+      </c>
+      <c r="AA73" s="13">
         <v>11</v>
       </c>
-      <c r="AA73" s="13">
-        <v>24</v>
-      </c>
       <c r="AB73" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC73" s="13">
         <v>0</v>
@@ -10729,8 +10729,8 @@
       <c r="AF73" s="13">
         <v>0</v>
       </c>
-      <c r="AG73" s="13">
-        <v>0</v>
+      <c r="AG73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH73" s="13" t="s">
         <v>58</v>
@@ -10738,32 +10738,32 @@
       <c r="AI73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK73" s="13">
-        <v>0</v>
+      <c r="AJ73" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM73" s="13" t="s">
-        <v>58</v>
+      <c r="AM73" s="13">
+        <v>0</v>
       </c>
       <c r="AN73" s="13">
         <v>0</v>
       </c>
-      <c r="AO73" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP73" s="13" t="s">
-        <v>58</v>
+      <c r="AO73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP73" s="13">
+        <v>0</v>
       </c>
       <c r="AQ73" s="13">
         <v>0</v>
       </c>
-      <c r="AR73" s="13">
-        <v>0</v>
+      <c r="AR73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS73" s="13" t="s">
         <v>58</v>
@@ -10796,7 +10796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>76</v>
       </c>
@@ -10858,23 +10858,23 @@
       <c r="V74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>58</v>
+      <c r="W74" s="11">
+        <v>15</v>
       </c>
       <c r="X74" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y74" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z74" s="11">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AA74" s="11">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AB74" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="11">
         <v>0</v>
@@ -10885,8 +10885,8 @@
       <c r="AE74" s="11">
         <v>0</v>
       </c>
-      <c r="AF74" s="11">
-        <v>0</v>
+      <c r="AF74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG74" s="11" t="s">
         <v>58</v>
@@ -10897,32 +10897,32 @@
       <c r="AI74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK74" s="11">
-        <v>0</v>
+      <c r="AJ74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM74" s="11" t="s">
-        <v>58</v>
+      <c r="AM74" s="11">
+        <v>0</v>
       </c>
       <c r="AN74" s="11">
         <v>0</v>
       </c>
-      <c r="AO74" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP74" s="11" t="s">
-        <v>58</v>
+      <c r="AO74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP74" s="11">
+        <v>0</v>
       </c>
       <c r="AQ74" s="11">
         <v>0</v>
       </c>
-      <c r="AR74" s="11">
-        <v>0</v>
+      <c r="AR74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS74" s="11" t="s">
         <v>58</v>
@@ -10955,7 +10955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>77</v>
       </c>
@@ -11029,14 +11029,14 @@
       <c r="Z75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA75" s="13" t="s">
-        <v>58</v>
+      <c r="AA75" s="13">
+        <v>39</v>
       </c>
       <c r="AB75" s="13">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AC75" s="13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="13">
         <v>0</v>
@@ -11044,8 +11044,8 @@
       <c r="AE75" s="13">
         <v>0</v>
       </c>
-      <c r="AF75" s="13">
-        <v>0</v>
+      <c r="AF75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG75" s="13" t="s">
         <v>58</v>
@@ -11065,23 +11065,23 @@
       <c r="AL75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM75" s="13" t="s">
-        <v>58</v>
+      <c r="AM75" s="13">
+        <v>0</v>
       </c>
       <c r="AN75" s="13">
         <v>0</v>
       </c>
-      <c r="AO75" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP75" s="13" t="s">
-        <v>58</v>
+      <c r="AO75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP75" s="13">
+        <v>0</v>
       </c>
       <c r="AQ75" s="13">
         <v>0</v>
       </c>
-      <c r="AR75" s="13">
-        <v>0</v>
+      <c r="AR75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS75" s="13" t="s">
         <v>58</v>
@@ -11114,7 +11114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>78</v>
       </c>
@@ -11233,47 +11233,47 @@
       <c r="AO76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP76" s="11" t="s">
-        <v>58</v>
+      <c r="AP76" s="11">
+        <v>61</v>
       </c>
       <c r="AQ76" s="11">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AR76" s="11">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AS76" s="11">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AT76" s="11">
+        <v>60</v>
+      </c>
+      <c r="AU76" s="11">
         <v>90</v>
       </c>
-      <c r="AU76" s="11">
-        <v>60</v>
-      </c>
       <c r="AV76" s="11">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="AW76" s="11">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AX76" s="11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AY76" s="11">
         <v>0</v>
       </c>
       <c r="AZ76" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA76" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB76" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>79</v>
       </c>
@@ -11392,47 +11392,47 @@
       <c r="AO77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP77" s="13" t="s">
-        <v>58</v>
+      <c r="AP77" s="13">
+        <v>23</v>
       </c>
       <c r="AQ77" s="13">
+        <v>55</v>
+      </c>
+      <c r="AR77" s="13">
+        <v>34</v>
+      </c>
+      <c r="AS77" s="13">
+        <v>67</v>
+      </c>
+      <c r="AT77" s="13">
+        <v>29</v>
+      </c>
+      <c r="AU77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="13">
+        <v>21</v>
+      </c>
+      <c r="AY77" s="13">
+        <v>11</v>
+      </c>
+      <c r="AZ77" s="13">
         <v>23</v>
       </c>
-      <c r="AR77" s="13">
-        <v>55</v>
-      </c>
-      <c r="AS77" s="13">
-        <v>34</v>
-      </c>
-      <c r="AT77" s="13">
-        <v>67</v>
-      </c>
-      <c r="AU77" s="13">
-        <v>29</v>
-      </c>
-      <c r="AV77" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW77" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX77" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY77" s="13">
-        <v>21</v>
-      </c>
-      <c r="AZ77" s="13">
-        <v>11</v>
-      </c>
       <c r="BA77" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB77" s="13">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>80</v>
       </c>
@@ -11494,8 +11494,8 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>0</v>
       </c>
       <c r="X78" s="11">
         <v>0</v>
@@ -11521,8 +11521,8 @@
       <c r="AE78" s="11">
         <v>0</v>
       </c>
-      <c r="AF78" s="11">
-        <v>0</v>
+      <c r="AF78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG78" s="11" t="s">
         <v>58</v>
@@ -11591,7 +11591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>81</v>
       </c>
@@ -11722,11 +11722,11 @@
       <c r="AS79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT79" s="13" t="s">
-        <v>58</v>
+      <c r="AT79" s="13">
+        <v>44</v>
       </c>
       <c r="AU79" s="13">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AV79" s="13">
         <v>0</v>
@@ -11735,22 +11735,22 @@
         <v>0</v>
       </c>
       <c r="AX79" s="13">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AY79" s="13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AZ79" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BA79" s="13">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="BB79" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>82</v>
       </c>
@@ -11881,11 +11881,11 @@
       <c r="AS80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT80" s="11" t="s">
-        <v>58</v>
+      <c r="AT80" s="11">
+        <v>48</v>
       </c>
       <c r="AU80" s="11">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AV80" s="11">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>83</v>
       </c>
@@ -12046,11 +12046,11 @@
       <c r="AU81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV81" s="13" t="s">
-        <v>58</v>
+      <c r="AV81" s="13">
+        <v>73</v>
       </c>
       <c r="AW81" s="13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AX81" s="13">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>84</v>
       </c>
@@ -12208,26 +12208,26 @@
       <c r="AV82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW82" s="11" t="s">
-        <v>58</v>
+      <c r="AW82" s="11">
+        <v>42</v>
       </c>
       <c r="AX82" s="11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AY82" s="11">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AZ82" s="11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA82" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB82" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>85</v>
       </c>
@@ -12373,20 +12373,20 @@
       <c r="AX83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY83" s="13" t="s">
-        <v>58</v>
+      <c r="AY83" s="13">
+        <v>43</v>
       </c>
       <c r="AZ83" s="13">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="BA83" s="13">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="BB83" s="13">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>86</v>
       </c>
@@ -12532,20 +12532,20 @@
       <c r="AX84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY84" s="11" t="s">
-        <v>58</v>
+      <c r="AY84" s="11">
+        <v>41</v>
       </c>
       <c r="AZ84" s="11">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="BA84" s="11">
+        <v>8</v>
+      </c>
+      <c r="BB84" s="11">
         <v>5</v>
       </c>
-      <c r="BB84" s="11">
-        <v>8</v>
-      </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>87</v>
       </c>
@@ -12694,17 +12694,17 @@
       <c r="AY85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ85" s="13" t="s">
-        <v>58</v>
+      <c r="AZ85" s="13">
+        <v>3</v>
       </c>
       <c r="BA85" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB85" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>88</v>
       </c>
@@ -12856,14 +12856,14 @@
       <c r="AZ86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA86" s="11" t="s">
-        <v>58</v>
+      <c r="BA86" s="11">
+        <v>23</v>
       </c>
       <c r="BB86" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
         <v>97</v>
       </c>
@@ -12924,103 +12924,103 @@
         <v>0</v>
       </c>
       <c r="W87" s="15">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="X87" s="15">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y87" s="15">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="Z87" s="15">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="AA87" s="15">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB87" s="15">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="AC87" s="15">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AD87" s="15">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AE87" s="15">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="AF87" s="15">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AG87" s="15">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AH87" s="15">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AI87" s="15">
         <v>173</v>
       </c>
       <c r="AJ87" s="15">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AK87" s="15">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AL87" s="15">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AM87" s="15">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="AN87" s="15">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="AO87" s="15">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AP87" s="15">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="AQ87" s="15">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AR87" s="15">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="AS87" s="15">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="AT87" s="15">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="AU87" s="15">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="AV87" s="15">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="AW87" s="15">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AX87" s="15">
         <v>335</v>
       </c>
       <c r="AY87" s="15">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="AZ87" s="15">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="BA87" s="15">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="BB87" s="15">
-        <v>276</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>98</v>
       </c>
@@ -13077,7 +13077,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>56</v>
       </c>
@@ -13211,11 +13211,11 @@
       <c r="AT89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU89" s="11" t="s">
-        <v>58</v>
+      <c r="AU89" s="11">
+        <v>8</v>
       </c>
       <c r="AV89" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW89" s="11">
         <v>0</v>
@@ -13236,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>62</v>
       </c>
@@ -13370,11 +13370,11 @@
       <c r="AT90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU90" s="13" t="s">
-        <v>58</v>
+      <c r="AU90" s="13">
+        <v>48</v>
       </c>
       <c r="AV90" s="13">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AW90" s="13">
         <v>0</v>
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="16" t="s">
         <v>99</v>
       </c>
@@ -13528,10 +13528,10 @@
         <v>0</v>
       </c>
       <c r="AU91" s="17">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AV91" s="17">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AW91" s="17">
         <v>0</v>
@@ -13552,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
         <v>92</v>
       </c>
@@ -13609,7 +13609,7 @@
       <c r="BA92" s="19"/>
       <c r="BB92" s="19"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
         <v>93</v>
       </c>
@@ -13669,8 +13669,8 @@
       <c r="V93" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="17" t="s">
-        <v>58</v>
+      <c r="W93" s="17">
+        <v>0</v>
       </c>
       <c r="X93" s="17">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>100</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>56</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>62</v>
       </c>
@@ -14128,20 +14128,20 @@
       <c r="AX96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY96" s="13" t="s">
-        <v>58</v>
+      <c r="AY96" s="13">
+        <v>-2</v>
       </c>
       <c r="AZ96" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BA96" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB96" s="13">
         <v>-1</v>
       </c>
+      <c r="BB96" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -14201,8 +14201,8 @@
       <c r="V97" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="17" t="s">
-        <v>58</v>
+      <c r="W97" s="17">
+        <v>0</v>
       </c>
       <c r="X97" s="17">
         <v>0</v>
@@ -14286,19 +14286,19 @@
         <v>0</v>
       </c>
       <c r="AY97" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AZ97" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB97" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
         <v>94</v>
       </c>
@@ -14359,103 +14359,103 @@
         <v>0</v>
       </c>
       <c r="W98" s="15">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="X98" s="15">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y98" s="15">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="Z98" s="15">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="AA98" s="15">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB98" s="15">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="AC98" s="15">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AD98" s="15">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AE98" s="15">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="AF98" s="15">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AG98" s="15">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AH98" s="15">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AI98" s="15">
         <v>173</v>
       </c>
       <c r="AJ98" s="15">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AK98" s="15">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AL98" s="15">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AM98" s="15">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="AN98" s="15">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="AO98" s="15">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AP98" s="15">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="AQ98" s="15">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AR98" s="15">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="AS98" s="15">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="AT98" s="15">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="AU98" s="15">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="AV98" s="15">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="AW98" s="15">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AX98" s="15">
         <v>335</v>
       </c>
       <c r="AY98" s="15">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="AZ98" s="15">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="BA98" s="15">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BB98" s="15">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -14510,7 +14510,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -14565,7 +14565,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -14620,7 +14620,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
     </row>
-    <row r="102" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>102</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -14832,7 +14832,7 @@
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>103</v>
       </c>
@@ -14889,7 +14889,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>56</v>
       </c>
@@ -14951,104 +14951,104 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>9705</v>
       </c>
       <c r="X105" s="11">
-        <v>9705</v>
+        <v>14078</v>
       </c>
       <c r="Y105" s="11">
-        <v>14078</v>
+        <v>3867</v>
       </c>
       <c r="Z105" s="11">
-        <v>3867</v>
+        <v>4652</v>
       </c>
       <c r="AA105" s="11">
-        <v>4652</v>
+        <v>7271</v>
       </c>
       <c r="AB105" s="11">
-        <v>7271</v>
+        <v>9541</v>
       </c>
       <c r="AC105" s="11">
-        <v>9541</v>
+        <v>8873</v>
       </c>
       <c r="AD105" s="11">
-        <v>8873</v>
+        <v>13089</v>
       </c>
       <c r="AE105" s="11">
-        <v>13089</v>
+        <v>31019</v>
       </c>
       <c r="AF105" s="11">
-        <v>31019</v>
+        <v>1392</v>
       </c>
       <c r="AG105" s="11">
-        <v>1392</v>
+        <v>17667</v>
       </c>
       <c r="AH105" s="11">
-        <v>17667</v>
+        <v>21275</v>
       </c>
       <c r="AI105" s="11">
-        <v>21275</v>
+        <v>26739</v>
       </c>
       <c r="AJ105" s="11">
-        <v>26739</v>
+        <v>23990</v>
       </c>
       <c r="AK105" s="11">
-        <v>23990</v>
+        <v>70220</v>
       </c>
       <c r="AL105" s="11">
-        <v>70220</v>
+        <v>39315</v>
       </c>
       <c r="AM105" s="11">
-        <v>39315</v>
+        <v>43042</v>
       </c>
       <c r="AN105" s="11">
-        <v>43042</v>
+        <v>53119</v>
       </c>
       <c r="AO105" s="11">
-        <v>53119</v>
+        <v>45313</v>
       </c>
       <c r="AP105" s="11">
-        <v>45313</v>
+        <v>8242</v>
       </c>
       <c r="AQ105" s="11">
-        <v>8242</v>
+        <v>14980</v>
       </c>
       <c r="AR105" s="11">
-        <v>14980</v>
+        <v>5564</v>
       </c>
       <c r="AS105" s="11">
-        <v>5564</v>
+        <v>7261</v>
       </c>
       <c r="AT105" s="11">
-        <v>7261</v>
+        <v>16118</v>
       </c>
       <c r="AU105" s="11">
-        <v>16118</v>
+        <v>5417</v>
       </c>
       <c r="AV105" s="11">
-        <v>5417</v>
+        <v>32091</v>
       </c>
       <c r="AW105" s="11">
-        <v>32091</v>
+        <v>50291</v>
       </c>
       <c r="AX105" s="11">
-        <v>50291</v>
+        <v>16845</v>
       </c>
       <c r="AY105" s="11">
-        <v>16845</v>
+        <v>29099</v>
       </c>
       <c r="AZ105" s="11">
-        <v>29099</v>
+        <v>37281</v>
       </c>
       <c r="BA105" s="11">
-        <v>37281</v>
+        <v>53973</v>
       </c>
       <c r="BB105" s="11">
-        <v>53973</v>
+        <v>41994</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>59</v>
       </c>
@@ -15110,104 +15110,104 @@
       <c r="V106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W106" s="13" t="s">
-        <v>58</v>
+      <c r="W106" s="13">
+        <v>341</v>
       </c>
       <c r="X106" s="13">
-        <v>341</v>
+        <v>1357</v>
       </c>
       <c r="Y106" s="13">
-        <v>1357</v>
+        <v>323</v>
       </c>
       <c r="Z106" s="13">
-        <v>323</v>
+        <v>1589</v>
       </c>
       <c r="AA106" s="13">
-        <v>1589</v>
+        <v>1161</v>
       </c>
       <c r="AB106" s="13">
-        <v>1161</v>
+        <v>1615</v>
       </c>
       <c r="AC106" s="13">
-        <v>1615</v>
+        <v>857</v>
       </c>
       <c r="AD106" s="13">
-        <v>857</v>
+        <v>1007</v>
       </c>
       <c r="AE106" s="13">
-        <v>1007</v>
+        <v>766</v>
       </c>
       <c r="AF106" s="13">
-        <v>766</v>
+        <v>498</v>
       </c>
       <c r="AG106" s="13">
-        <v>498</v>
+        <v>3056</v>
       </c>
       <c r="AH106" s="13">
-        <v>3056</v>
+        <v>3096</v>
       </c>
       <c r="AI106" s="13">
-        <v>3096</v>
+        <v>1193</v>
       </c>
       <c r="AJ106" s="13">
-        <v>1193</v>
+        <v>353</v>
       </c>
       <c r="AK106" s="13">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="AL106" s="13">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="AM106" s="13">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="AN106" s="13">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="AO106" s="13">
-        <v>364</v>
+        <v>579</v>
       </c>
       <c r="AP106" s="13">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AQ106" s="13">
         <v>0</v>
       </c>
       <c r="AR106" s="13">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AS106" s="13">
-        <v>250</v>
+        <v>1319</v>
       </c>
       <c r="AT106" s="13">
-        <v>1319</v>
+        <v>290</v>
       </c>
       <c r="AU106" s="13">
-        <v>290</v>
+        <v>975</v>
       </c>
       <c r="AV106" s="13">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="AW106" s="13">
-        <v>1009</v>
+        <v>621</v>
       </c>
       <c r="AX106" s="13">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="AY106" s="13">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="AZ106" s="13">
-        <v>1029</v>
+        <v>0</v>
       </c>
       <c r="BA106" s="13">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="BB106" s="13">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>60</v>
       </c>
@@ -15269,8 +15269,8 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>0</v>
       </c>
       <c r="X107" s="11">
         <v>0</v>
@@ -15296,8 +15296,8 @@
       <c r="AE107" s="11">
         <v>0</v>
       </c>
-      <c r="AF107" s="11">
-        <v>0</v>
+      <c r="AF107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG107" s="11" t="s">
         <v>58</v>
@@ -15314,59 +15314,59 @@
       <c r="AK107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL107" s="11" t="s">
-        <v>58</v>
+      <c r="AL107" s="11">
+        <v>6025</v>
       </c>
       <c r="AM107" s="11">
-        <v>6025</v>
+        <v>552</v>
       </c>
       <c r="AN107" s="11">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="AO107" s="11">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="AP107" s="11">
-        <v>3870</v>
+        <v>1172</v>
       </c>
       <c r="AQ107" s="11">
-        <v>1172</v>
+        <v>5391</v>
       </c>
       <c r="AR107" s="11">
-        <v>5391</v>
+        <v>4337</v>
       </c>
       <c r="AS107" s="11">
-        <v>4337</v>
+        <v>2313</v>
       </c>
       <c r="AT107" s="11">
-        <v>2313</v>
+        <v>3289</v>
       </c>
       <c r="AU107" s="11">
-        <v>3289</v>
+        <v>7075</v>
       </c>
       <c r="AV107" s="11">
-        <v>7075</v>
+        <v>4469</v>
       </c>
       <c r="AW107" s="11">
-        <v>4469</v>
+        <v>3335</v>
       </c>
       <c r="AX107" s="11">
-        <v>3335</v>
+        <v>15658</v>
       </c>
       <c r="AY107" s="11">
-        <v>15658</v>
+        <v>7610</v>
       </c>
       <c r="AZ107" s="11">
-        <v>7610</v>
+        <v>16011</v>
       </c>
       <c r="BA107" s="11">
-        <v>16011</v>
+        <v>0</v>
       </c>
       <c r="BB107" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>61</v>
       </c>
@@ -15428,8 +15428,8 @@
       <c r="V108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W108" s="13" t="s">
-        <v>58</v>
+      <c r="W108" s="13">
+        <v>0</v>
       </c>
       <c r="X108" s="13">
         <v>0</v>
@@ -15455,8 +15455,8 @@
       <c r="AE108" s="13">
         <v>0</v>
       </c>
-      <c r="AF108" s="13">
-        <v>0</v>
+      <c r="AF108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG108" s="13" t="s">
         <v>58</v>
@@ -15525,7 +15525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>62</v>
       </c>
@@ -15587,104 +15587,104 @@
       <c r="V109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W109" s="11" t="s">
-        <v>58</v>
+      <c r="W109" s="11">
+        <v>22073</v>
       </c>
       <c r="X109" s="11">
-        <v>22073</v>
+        <v>22340</v>
       </c>
       <c r="Y109" s="11">
-        <v>22340</v>
+        <v>34297</v>
       </c>
       <c r="Z109" s="11">
-        <v>34297</v>
+        <v>12883</v>
       </c>
       <c r="AA109" s="11">
-        <v>12883</v>
+        <v>33274</v>
       </c>
       <c r="AB109" s="11">
-        <v>33274</v>
+        <v>31330</v>
       </c>
       <c r="AC109" s="11">
-        <v>31330</v>
+        <v>27596</v>
       </c>
       <c r="AD109" s="11">
-        <v>27596</v>
+        <v>27316</v>
       </c>
       <c r="AE109" s="11">
-        <v>27316</v>
+        <v>30552</v>
       </c>
       <c r="AF109" s="11">
-        <v>30552</v>
+        <v>24511</v>
       </c>
       <c r="AG109" s="11">
-        <v>24511</v>
+        <v>44748</v>
       </c>
       <c r="AH109" s="11">
-        <v>44748</v>
+        <v>33419</v>
       </c>
       <c r="AI109" s="11">
-        <v>33419</v>
+        <v>43276</v>
       </c>
       <c r="AJ109" s="11">
-        <v>43276</v>
+        <v>50344</v>
       </c>
       <c r="AK109" s="11">
-        <v>50344</v>
+        <v>50383</v>
       </c>
       <c r="AL109" s="11">
-        <v>50383</v>
+        <v>54623</v>
       </c>
       <c r="AM109" s="11">
-        <v>54623</v>
+        <v>68597</v>
       </c>
       <c r="AN109" s="11">
-        <v>68597</v>
+        <v>116986</v>
       </c>
       <c r="AO109" s="11">
-        <v>116986</v>
+        <v>73955</v>
       </c>
       <c r="AP109" s="11">
-        <v>73955</v>
+        <v>50151</v>
       </c>
       <c r="AQ109" s="11">
-        <v>50151</v>
+        <v>54971</v>
       </c>
       <c r="AR109" s="11">
-        <v>54971</v>
+        <v>14850</v>
       </c>
       <c r="AS109" s="11">
-        <v>14850</v>
+        <v>38167</v>
       </c>
       <c r="AT109" s="11">
-        <v>38167</v>
+        <v>64123</v>
       </c>
       <c r="AU109" s="11">
-        <v>64123</v>
+        <v>69741</v>
       </c>
       <c r="AV109" s="11">
-        <v>69741</v>
+        <v>87851</v>
       </c>
       <c r="AW109" s="11">
-        <v>87851</v>
+        <v>111883</v>
       </c>
       <c r="AX109" s="11">
-        <v>111883</v>
+        <v>70555</v>
       </c>
       <c r="AY109" s="11">
-        <v>70555</v>
+        <v>79383</v>
       </c>
       <c r="AZ109" s="11">
-        <v>79383</v>
+        <v>36604</v>
       </c>
       <c r="BA109" s="11">
-        <v>36604</v>
+        <v>40176</v>
       </c>
       <c r="BB109" s="11">
-        <v>40176</v>
+        <v>65445</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>63</v>
       </c>
@@ -15746,104 +15746,104 @@
       <c r="V110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="13" t="s">
-        <v>58</v>
+      <c r="W110" s="13">
+        <v>19469</v>
       </c>
       <c r="X110" s="13">
-        <v>19469</v>
+        <v>14751</v>
       </c>
       <c r="Y110" s="13">
-        <v>14751</v>
+        <v>29755</v>
       </c>
       <c r="Z110" s="13">
-        <v>29755</v>
+        <v>34835</v>
       </c>
       <c r="AA110" s="13">
-        <v>34835</v>
+        <v>15828</v>
       </c>
       <c r="AB110" s="13">
-        <v>15828</v>
+        <v>15313</v>
       </c>
       <c r="AC110" s="13">
-        <v>15313</v>
+        <v>32118</v>
       </c>
       <c r="AD110" s="13">
-        <v>32118</v>
+        <v>31256</v>
       </c>
       <c r="AE110" s="13">
-        <v>31256</v>
+        <v>20053</v>
       </c>
       <c r="AF110" s="13">
-        <v>20053</v>
+        <v>11542</v>
       </c>
       <c r="AG110" s="13">
-        <v>11542</v>
+        <v>18661</v>
       </c>
       <c r="AH110" s="13">
-        <v>18661</v>
+        <v>18988</v>
       </c>
       <c r="AI110" s="13">
-        <v>18988</v>
+        <v>13008</v>
       </c>
       <c r="AJ110" s="13">
-        <v>13008</v>
+        <v>10043</v>
       </c>
       <c r="AK110" s="13">
-        <v>10043</v>
+        <v>19272</v>
       </c>
       <c r="AL110" s="13">
-        <v>19272</v>
+        <v>16909</v>
       </c>
       <c r="AM110" s="13">
-        <v>16909</v>
+        <v>12059</v>
       </c>
       <c r="AN110" s="13">
-        <v>12059</v>
+        <v>14542</v>
       </c>
       <c r="AO110" s="13">
-        <v>14542</v>
+        <v>68063</v>
       </c>
       <c r="AP110" s="13">
-        <v>68063</v>
+        <v>46354</v>
       </c>
       <c r="AQ110" s="13">
-        <v>46354</v>
+        <v>20177</v>
       </c>
       <c r="AR110" s="13">
-        <v>20177</v>
+        <v>11530</v>
       </c>
       <c r="AS110" s="13">
-        <v>11530</v>
+        <v>26620</v>
       </c>
       <c r="AT110" s="13">
-        <v>26620</v>
+        <v>26279</v>
       </c>
       <c r="AU110" s="13">
-        <v>26279</v>
+        <v>32625</v>
       </c>
       <c r="AV110" s="13">
-        <v>32625</v>
+        <v>25877</v>
       </c>
       <c r="AW110" s="13">
-        <v>25877</v>
+        <v>27255</v>
       </c>
       <c r="AX110" s="13">
-        <v>27255</v>
+        <v>16357</v>
       </c>
       <c r="AY110" s="13">
-        <v>16357</v>
+        <v>23402</v>
       </c>
       <c r="AZ110" s="13">
-        <v>23402</v>
+        <v>26788</v>
       </c>
       <c r="BA110" s="13">
-        <v>26788</v>
+        <v>31901</v>
       </c>
       <c r="BB110" s="13">
-        <v>31901</v>
+        <v>23659</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>64</v>
       </c>
@@ -15905,8 +15905,8 @@
       <c r="V111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W111" s="11" t="s">
-        <v>58</v>
+      <c r="W111" s="11">
+        <v>0</v>
       </c>
       <c r="X111" s="11">
         <v>0</v>
@@ -15932,8 +15932,8 @@
       <c r="AE111" s="11">
         <v>0</v>
       </c>
-      <c r="AF111" s="11">
-        <v>0</v>
+      <c r="AF111" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG111" s="11" t="s">
         <v>58</v>
@@ -16002,7 +16002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>65</v>
       </c>
@@ -16064,8 +16064,8 @@
       <c r="V112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W112" s="13" t="s">
-        <v>58</v>
+      <c r="W112" s="13">
+        <v>0</v>
       </c>
       <c r="X112" s="13">
         <v>0</v>
@@ -16091,11 +16091,11 @@
       <c r="AE112" s="13">
         <v>0</v>
       </c>
-      <c r="AF112" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG112" s="13" t="s">
-        <v>58</v>
+      <c r="AF112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG112" s="13">
+        <v>0</v>
       </c>
       <c r="AH112" s="13">
         <v>0</v>
@@ -16127,8 +16127,8 @@
       <c r="AQ112" s="13">
         <v>0</v>
       </c>
-      <c r="AR112" s="13">
-        <v>0</v>
+      <c r="AR112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS112" s="13" t="s">
         <v>58</v>
@@ -16161,7 +16161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>66</v>
       </c>
@@ -16223,8 +16223,8 @@
       <c r="V113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W113" s="11" t="s">
-        <v>58</v>
+      <c r="W113" s="11">
+        <v>0</v>
       </c>
       <c r="X113" s="11">
         <v>0</v>
@@ -16250,8 +16250,8 @@
       <c r="AE113" s="11">
         <v>0</v>
       </c>
-      <c r="AF113" s="11">
-        <v>0</v>
+      <c r="AF113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG113" s="11" t="s">
         <v>58</v>
@@ -16320,7 +16320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>67</v>
       </c>
@@ -16382,8 +16382,8 @@
       <c r="V114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W114" s="13" t="s">
-        <v>58</v>
+      <c r="W114" s="13">
+        <v>0</v>
       </c>
       <c r="X114" s="13">
         <v>0</v>
@@ -16392,10 +16392,10 @@
         <v>0</v>
       </c>
       <c r="Z114" s="13">
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="AA114" s="13">
-        <v>1782</v>
+        <v>0</v>
       </c>
       <c r="AB114" s="13">
         <v>0</v>
@@ -16409,8 +16409,8 @@
       <c r="AE114" s="13">
         <v>0</v>
       </c>
-      <c r="AF114" s="13">
-        <v>0</v>
+      <c r="AF114" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG114" s="13" t="s">
         <v>58</v>
@@ -16427,8 +16427,8 @@
       <c r="AK114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL114" s="13" t="s">
-        <v>58</v>
+      <c r="AL114" s="13">
+        <v>0</v>
       </c>
       <c r="AM114" s="13">
         <v>0</v>
@@ -16445,8 +16445,8 @@
       <c r="AQ114" s="13">
         <v>0</v>
       </c>
-      <c r="AR114" s="13">
-        <v>0</v>
+      <c r="AR114" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS114" s="13" t="s">
         <v>58</v>
@@ -16479,7 +16479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>68</v>
       </c>
@@ -16541,8 +16541,8 @@
       <c r="V115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W115" s="11" t="s">
-        <v>58</v>
+      <c r="W115" s="11">
+        <v>0</v>
       </c>
       <c r="X115" s="11">
         <v>0</v>
@@ -16557,52 +16557,52 @@
         <v>0</v>
       </c>
       <c r="AB115" s="11">
-        <v>0</v>
+        <v>8058</v>
       </c>
       <c r="AC115" s="11">
-        <v>8058</v>
+        <v>22712</v>
       </c>
       <c r="AD115" s="11">
-        <v>22712</v>
+        <v>9818</v>
       </c>
       <c r="AE115" s="11">
-        <v>9818</v>
+        <v>6409</v>
       </c>
       <c r="AF115" s="11">
-        <v>6409</v>
+        <v>3297</v>
       </c>
       <c r="AG115" s="11">
-        <v>3297</v>
+        <v>6720</v>
       </c>
       <c r="AH115" s="11">
-        <v>6720</v>
+        <v>8310</v>
       </c>
       <c r="AI115" s="11">
-        <v>8310</v>
+        <v>12181</v>
       </c>
       <c r="AJ115" s="11">
-        <v>12181</v>
+        <v>9512</v>
       </c>
       <c r="AK115" s="11">
-        <v>9512</v>
+        <v>1599</v>
       </c>
       <c r="AL115" s="11">
-        <v>1599</v>
+        <v>9450</v>
       </c>
       <c r="AM115" s="11">
-        <v>9450</v>
+        <v>33738</v>
       </c>
       <c r="AN115" s="11">
-        <v>33738</v>
+        <v>0</v>
       </c>
       <c r="AO115" s="11">
         <v>0</v>
       </c>
       <c r="AP115" s="11">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="AQ115" s="11">
-        <v>6110</v>
+        <v>0</v>
       </c>
       <c r="AR115" s="11">
         <v>0</v>
@@ -16638,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>69</v>
       </c>
@@ -16700,17 +16700,17 @@
       <c r="V116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W116" s="13" t="s">
-        <v>58</v>
+      <c r="W116" s="13">
+        <v>0</v>
       </c>
       <c r="X116" s="13">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="Y116" s="13">
-        <v>1860</v>
+        <v>3840</v>
       </c>
       <c r="Z116" s="13">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AA116" s="13">
         <v>0</v>
@@ -16722,16 +16722,16 @@
         <v>0</v>
       </c>
       <c r="AD116" s="13">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="AE116" s="13">
-        <v>1620</v>
-      </c>
-      <c r="AF116" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG116" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AF116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG116" s="13">
+        <v>0</v>
       </c>
       <c r="AH116" s="13">
         <v>0</v>
@@ -16763,8 +16763,8 @@
       <c r="AQ116" s="13">
         <v>0</v>
       </c>
-      <c r="AR116" s="13">
-        <v>0</v>
+      <c r="AR116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS116" s="13" t="s">
         <v>58</v>
@@ -16797,7 +16797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>70</v>
       </c>
@@ -16859,8 +16859,8 @@
       <c r="V117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W117" s="11" t="s">
-        <v>58</v>
+      <c r="W117" s="11">
+        <v>0</v>
       </c>
       <c r="X117" s="11">
         <v>0</v>
@@ -16886,8 +16886,8 @@
       <c r="AE117" s="11">
         <v>0</v>
       </c>
-      <c r="AF117" s="11">
-        <v>0</v>
+      <c r="AF117" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG117" s="11" t="s">
         <v>58</v>
@@ -16956,7 +16956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>71</v>
       </c>
@@ -17018,8 +17018,8 @@
       <c r="V118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13">
+        <v>0</v>
       </c>
       <c r="X118" s="13">
         <v>0</v>
@@ -17045,8 +17045,8 @@
       <c r="AE118" s="13">
         <v>0</v>
       </c>
-      <c r="AF118" s="13">
-        <v>0</v>
+      <c r="AF118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG118" s="13" t="s">
         <v>58</v>
@@ -17115,7 +17115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>72</v>
       </c>
@@ -17177,23 +17177,23 @@
       <c r="V119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W119" s="11" t="s">
-        <v>58</v>
+      <c r="W119" s="11">
+        <v>23475</v>
       </c>
       <c r="X119" s="11">
-        <v>23475</v>
+        <v>27730</v>
       </c>
       <c r="Y119" s="11">
-        <v>27730</v>
+        <v>7600</v>
       </c>
       <c r="Z119" s="11">
-        <v>7600</v>
+        <v>8550</v>
       </c>
       <c r="AA119" s="11">
-        <v>8550</v>
+        <v>9500</v>
       </c>
       <c r="AB119" s="11">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="AC119" s="11">
         <v>0</v>
@@ -17204,11 +17204,11 @@
       <c r="AE119" s="11">
         <v>0</v>
       </c>
-      <c r="AF119" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG119" s="11" t="s">
-        <v>58</v>
+      <c r="AF119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG119" s="11">
+        <v>0</v>
       </c>
       <c r="AH119" s="11">
         <v>0</v>
@@ -17240,8 +17240,8 @@
       <c r="AQ119" s="11">
         <v>0</v>
       </c>
-      <c r="AR119" s="11">
-        <v>0</v>
+      <c r="AR119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS119" s="11" t="s">
         <v>58</v>
@@ -17274,7 +17274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>73</v>
       </c>
@@ -17339,8 +17339,8 @@
       <c r="W120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X120" s="13" t="s">
-        <v>58</v>
+      <c r="X120" s="13">
+        <v>0</v>
       </c>
       <c r="Y120" s="13">
         <v>0</v>
@@ -17363,8 +17363,8 @@
       <c r="AE120" s="13">
         <v>0</v>
       </c>
-      <c r="AF120" s="13">
-        <v>0</v>
+      <c r="AF120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG120" s="13" t="s">
         <v>58</v>
@@ -17433,7 +17433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>74</v>
       </c>
@@ -17498,8 +17498,8 @@
       <c r="W121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X121" s="11" t="s">
-        <v>58</v>
+      <c r="X121" s="11">
+        <v>0</v>
       </c>
       <c r="Y121" s="11">
         <v>0</v>
@@ -17522,8 +17522,8 @@
       <c r="AE121" s="11">
         <v>0</v>
       </c>
-      <c r="AF121" s="11">
-        <v>0</v>
+      <c r="AF121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG121" s="11" t="s">
         <v>58</v>
@@ -17592,7 +17592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>75</v>
       </c>
@@ -17654,23 +17654,23 @@
       <c r="V122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W122" s="13" t="s">
-        <v>58</v>
+      <c r="W122" s="13">
+        <v>4700</v>
       </c>
       <c r="X122" s="13">
-        <v>4700</v>
+        <v>10913</v>
       </c>
       <c r="Y122" s="13">
-        <v>10913</v>
+        <v>5170</v>
       </c>
       <c r="Z122" s="13">
-        <v>5170</v>
+        <v>12415</v>
       </c>
       <c r="AA122" s="13">
-        <v>12415</v>
+        <v>6122</v>
       </c>
       <c r="AB122" s="13">
-        <v>6122</v>
+        <v>0</v>
       </c>
       <c r="AC122" s="13">
         <v>0</v>
@@ -17717,8 +17717,8 @@
       <c r="AQ122" s="13">
         <v>0</v>
       </c>
-      <c r="AR122" s="13">
-        <v>0</v>
+      <c r="AR122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS122" s="13" t="s">
         <v>58</v>
@@ -17751,7 +17751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>76</v>
       </c>
@@ -17813,23 +17813,23 @@
       <c r="V123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W123" s="11" t="s">
-        <v>58</v>
+      <c r="W123" s="11">
+        <v>7800</v>
       </c>
       <c r="X123" s="11">
-        <v>7800</v>
+        <v>11961</v>
       </c>
       <c r="Y123" s="11">
-        <v>11961</v>
+        <v>9879</v>
       </c>
       <c r="Z123" s="11">
-        <v>9879</v>
+        <v>14726</v>
       </c>
       <c r="AA123" s="11">
-        <v>14726</v>
+        <v>4007</v>
       </c>
       <c r="AB123" s="11">
-        <v>4007</v>
+        <v>0</v>
       </c>
       <c r="AC123" s="11">
         <v>0</v>
@@ -17840,8 +17840,8 @@
       <c r="AE123" s="11">
         <v>0</v>
       </c>
-      <c r="AF123" s="11">
-        <v>0</v>
+      <c r="AF123" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG123" s="11" t="s">
         <v>58</v>
@@ -17849,8 +17849,8 @@
       <c r="AH123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI123" s="11" t="s">
-        <v>58</v>
+      <c r="AI123" s="11">
+        <v>0</v>
       </c>
       <c r="AJ123" s="11">
         <v>0</v>
@@ -17876,8 +17876,8 @@
       <c r="AQ123" s="11">
         <v>0</v>
       </c>
-      <c r="AR123" s="11">
-        <v>0</v>
+      <c r="AR123" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS123" s="11" t="s">
         <v>58</v>
@@ -17910,7 +17910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>77</v>
       </c>
@@ -17984,14 +17984,14 @@
       <c r="Z124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA124" s="13" t="s">
-        <v>58</v>
+      <c r="AA124" s="13">
+        <v>23146</v>
       </c>
       <c r="AB124" s="13">
-        <v>23146</v>
+        <v>28892</v>
       </c>
       <c r="AC124" s="13">
-        <v>28892</v>
+        <v>0</v>
       </c>
       <c r="AD124" s="13">
         <v>0</v>
@@ -17999,8 +17999,8 @@
       <c r="AE124" s="13">
         <v>0</v>
       </c>
-      <c r="AF124" s="13">
-        <v>0</v>
+      <c r="AF124" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG124" s="13" t="s">
         <v>58</v>
@@ -18020,8 +18020,8 @@
       <c r="AL124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM124" s="13" t="s">
-        <v>58</v>
+      <c r="AM124" s="13">
+        <v>0</v>
       </c>
       <c r="AN124" s="13">
         <v>0</v>
@@ -18035,8 +18035,8 @@
       <c r="AQ124" s="13">
         <v>0</v>
       </c>
-      <c r="AR124" s="13">
-        <v>0</v>
+      <c r="AR124" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS124" s="13" t="s">
         <v>58</v>
@@ -18069,7 +18069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>78</v>
       </c>
@@ -18188,47 +18188,47 @@
       <c r="AO125" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP125" s="11" t="s">
-        <v>58</v>
+      <c r="AP125" s="11">
+        <v>54890</v>
       </c>
       <c r="AQ125" s="11">
-        <v>54890</v>
+        <v>88608</v>
       </c>
       <c r="AR125" s="11">
-        <v>88608</v>
+        <v>41598</v>
       </c>
       <c r="AS125" s="11">
-        <v>41598</v>
+        <v>89558</v>
       </c>
       <c r="AT125" s="11">
-        <v>89558</v>
+        <v>62822</v>
       </c>
       <c r="AU125" s="11">
-        <v>62822</v>
+        <v>95645</v>
       </c>
       <c r="AV125" s="11">
-        <v>95645</v>
+        <v>60228</v>
       </c>
       <c r="AW125" s="11">
-        <v>60228</v>
+        <v>28897</v>
       </c>
       <c r="AX125" s="11">
-        <v>28897</v>
+        <v>0</v>
       </c>
       <c r="AY125" s="11">
         <v>0</v>
       </c>
       <c r="AZ125" s="11">
-        <v>0</v>
+        <v>35215</v>
       </c>
       <c r="BA125" s="11">
-        <v>35215</v>
+        <v>40546</v>
       </c>
       <c r="BB125" s="11">
-        <v>40546</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>79</v>
       </c>
@@ -18347,23 +18347,23 @@
       <c r="AO126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP126" s="13" t="s">
-        <v>58</v>
+      <c r="AP126" s="13">
+        <v>20112</v>
       </c>
       <c r="AQ126" s="13">
-        <v>20112</v>
+        <v>50432</v>
       </c>
       <c r="AR126" s="13">
-        <v>50432</v>
+        <v>31829</v>
       </c>
       <c r="AS126" s="13">
-        <v>31829</v>
+        <v>64129</v>
       </c>
       <c r="AT126" s="13">
-        <v>64129</v>
+        <v>29112</v>
       </c>
       <c r="AU126" s="13">
-        <v>29112</v>
+        <v>0</v>
       </c>
       <c r="AV126" s="13">
         <v>0</v>
@@ -18372,22 +18372,22 @@
         <v>0</v>
       </c>
       <c r="AX126" s="13">
-        <v>0</v>
+        <v>23520</v>
       </c>
       <c r="AY126" s="13">
-        <v>23520</v>
+        <v>12647</v>
       </c>
       <c r="AZ126" s="13">
-        <v>12647</v>
+        <v>26073</v>
       </c>
       <c r="BA126" s="13">
-        <v>26073</v>
+        <v>29436</v>
       </c>
       <c r="BB126" s="13">
-        <v>29436</v>
+        <v>2606</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>80</v>
       </c>
@@ -18449,8 +18449,8 @@
       <c r="V127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W127" s="11" t="s">
-        <v>58</v>
+      <c r="W127" s="11">
+        <v>0</v>
       </c>
       <c r="X127" s="11">
         <v>0</v>
@@ -18476,8 +18476,8 @@
       <c r="AE127" s="11">
         <v>0</v>
       </c>
-      <c r="AF127" s="11">
-        <v>0</v>
+      <c r="AF127" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG127" s="11" t="s">
         <v>58</v>
@@ -18546,7 +18546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>81</v>
       </c>
@@ -18677,11 +18677,11 @@
       <c r="AS128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT128" s="13" t="s">
-        <v>58</v>
+      <c r="AT128" s="13">
+        <v>23793</v>
       </c>
       <c r="AU128" s="13">
-        <v>23793</v>
+        <v>0</v>
       </c>
       <c r="AV128" s="13">
         <v>0</v>
@@ -18690,22 +18690,22 @@
         <v>0</v>
       </c>
       <c r="AX128" s="13">
-        <v>0</v>
+        <v>37051</v>
       </c>
       <c r="AY128" s="13">
-        <v>37051</v>
+        <v>0</v>
       </c>
       <c r="AZ128" s="13">
-        <v>0</v>
+        <v>18376</v>
       </c>
       <c r="BA128" s="13">
-        <v>18376</v>
+        <v>6333</v>
       </c>
       <c r="BB128" s="13">
-        <v>6333</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>82</v>
       </c>
@@ -18836,11 +18836,11 @@
       <c r="AS129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT129" s="11" t="s">
-        <v>58</v>
+      <c r="AT129" s="11">
+        <v>25498</v>
       </c>
       <c r="AU129" s="11">
-        <v>25498</v>
+        <v>0</v>
       </c>
       <c r="AV129" s="11">
         <v>0</v>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>83</v>
       </c>
@@ -19001,11 +19001,11 @@
       <c r="AU130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV130" s="13" t="s">
-        <v>58</v>
+      <c r="AV130" s="13">
+        <v>45184</v>
       </c>
       <c r="AW130" s="13">
-        <v>45184</v>
+        <v>0</v>
       </c>
       <c r="AX130" s="13">
         <v>0</v>
@@ -19023,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>84</v>
       </c>
@@ -19163,26 +19163,26 @@
       <c r="AV131" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW131" s="11" t="s">
-        <v>58</v>
+      <c r="AW131" s="11">
+        <v>44824</v>
       </c>
       <c r="AX131" s="11">
-        <v>44824</v>
+        <v>73359</v>
       </c>
       <c r="AY131" s="11">
-        <v>73359</v>
+        <v>18345</v>
       </c>
       <c r="AZ131" s="11">
-        <v>18345</v>
+        <v>24158</v>
       </c>
       <c r="BA131" s="11">
-        <v>24158</v>
+        <v>27476</v>
       </c>
       <c r="BB131" s="11">
-        <v>27476</v>
+        <v>27817</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>85</v>
       </c>
@@ -19328,20 +19328,20 @@
       <c r="AX132" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY132" s="13" t="s">
-        <v>58</v>
+      <c r="AY132" s="13">
+        <v>49376</v>
       </c>
       <c r="AZ132" s="13">
-        <v>49376</v>
+        <v>26343</v>
       </c>
       <c r="BA132" s="13">
-        <v>26343</v>
+        <v>14249</v>
       </c>
       <c r="BB132" s="13">
-        <v>14249</v>
+        <v>50169</v>
       </c>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>86</v>
       </c>
@@ -19487,20 +19487,20 @@
       <c r="AX133" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY133" s="11" t="s">
-        <v>58</v>
+      <c r="AY133" s="11">
+        <v>33334</v>
       </c>
       <c r="AZ133" s="11">
-        <v>33334</v>
+        <v>4321</v>
       </c>
       <c r="BA133" s="11">
-        <v>4321</v>
+        <v>6862</v>
       </c>
       <c r="BB133" s="11">
-        <v>6862</v>
+        <v>4577</v>
       </c>
     </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>87</v>
       </c>
@@ -19649,17 +19649,17 @@
       <c r="AY134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ134" s="13" t="s">
-        <v>58</v>
+      <c r="AZ134" s="13">
+        <v>3341</v>
       </c>
       <c r="BA134" s="13">
-        <v>3341</v>
+        <v>801</v>
       </c>
       <c r="BB134" s="13">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>88</v>
       </c>
@@ -19811,14 +19811,14 @@
       <c r="AZ135" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA135" s="11" t="s">
-        <v>58</v>
+      <c r="BA135" s="11">
+        <v>32767</v>
       </c>
       <c r="BB135" s="11">
-        <v>32767</v>
+        <v>30029</v>
       </c>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B136" s="14" t="s">
         <v>97</v>
       </c>
@@ -19879,103 +19879,103 @@
         <v>0</v>
       </c>
       <c r="W136" s="15">
-        <v>0</v>
+        <v>87563</v>
       </c>
       <c r="X136" s="15">
-        <v>87563</v>
+        <v>104990</v>
       </c>
       <c r="Y136" s="15">
-        <v>104990</v>
+        <v>94731</v>
       </c>
       <c r="Z136" s="15">
-        <v>94731</v>
+        <v>91432</v>
       </c>
       <c r="AA136" s="15">
-        <v>91432</v>
+        <v>100309</v>
       </c>
       <c r="AB136" s="15">
-        <v>100309</v>
+        <v>94749</v>
       </c>
       <c r="AC136" s="15">
-        <v>94749</v>
+        <v>92156</v>
       </c>
       <c r="AD136" s="15">
-        <v>92156</v>
+        <v>84106</v>
       </c>
       <c r="AE136" s="15">
-        <v>84106</v>
+        <v>88799</v>
       </c>
       <c r="AF136" s="15">
-        <v>88799</v>
+        <v>41240</v>
       </c>
       <c r="AG136" s="15">
-        <v>41240</v>
+        <v>90852</v>
       </c>
       <c r="AH136" s="15">
-        <v>90852</v>
+        <v>85088</v>
       </c>
       <c r="AI136" s="15">
-        <v>85088</v>
+        <v>96397</v>
       </c>
       <c r="AJ136" s="15">
-        <v>96397</v>
+        <v>94242</v>
       </c>
       <c r="AK136" s="15">
-        <v>94242</v>
+        <v>141474</v>
       </c>
       <c r="AL136" s="15">
-        <v>141474</v>
+        <v>126716</v>
       </c>
       <c r="AM136" s="15">
-        <v>126716</v>
+        <v>158442</v>
       </c>
       <c r="AN136" s="15">
-        <v>158442</v>
+        <v>185011</v>
       </c>
       <c r="AO136" s="15">
-        <v>185011</v>
+        <v>191780</v>
       </c>
       <c r="AP136" s="15">
-        <v>191780</v>
+        <v>187031</v>
       </c>
       <c r="AQ136" s="15">
-        <v>187031</v>
+        <v>234559</v>
       </c>
       <c r="AR136" s="15">
-        <v>234559</v>
+        <v>109958</v>
       </c>
       <c r="AS136" s="15">
-        <v>109958</v>
+        <v>229367</v>
       </c>
       <c r="AT136" s="15">
-        <v>229367</v>
+        <v>251324</v>
       </c>
       <c r="AU136" s="15">
-        <v>251324</v>
+        <v>211478</v>
       </c>
       <c r="AV136" s="15">
-        <v>211478</v>
+        <v>256709</v>
       </c>
       <c r="AW136" s="15">
-        <v>256709</v>
+        <v>267106</v>
       </c>
       <c r="AX136" s="15">
-        <v>267106</v>
+        <v>253345</v>
       </c>
       <c r="AY136" s="15">
-        <v>253345</v>
+        <v>254225</v>
       </c>
       <c r="AZ136" s="15">
-        <v>254225</v>
+        <v>254511</v>
       </c>
       <c r="BA136" s="15">
-        <v>254511</v>
+        <v>285367</v>
       </c>
       <c r="BB136" s="15">
-        <v>285367</v>
+        <v>246296</v>
       </c>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
         <v>105</v>
       </c>
@@ -20032,7 +20032,7 @@
       <c r="BA137" s="9"/>
       <c r="BB137" s="9"/>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>56</v>
       </c>
@@ -20166,11 +20166,11 @@
       <c r="AT138" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU138" s="11" t="s">
-        <v>58</v>
+      <c r="AU138" s="11">
+        <v>8111</v>
       </c>
       <c r="AV138" s="11">
-        <v>8111</v>
+        <v>0</v>
       </c>
       <c r="AW138" s="11">
         <v>0</v>
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>62</v>
       </c>
@@ -20325,11 +20325,11 @@
       <c r="AT139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU139" s="13" t="s">
-        <v>58</v>
+      <c r="AU139" s="13">
+        <v>36209</v>
       </c>
       <c r="AV139" s="13">
-        <v>36209</v>
+        <v>0</v>
       </c>
       <c r="AW139" s="13">
         <v>0</v>
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B140" s="16" t="s">
         <v>99</v>
       </c>
@@ -20483,10 +20483,10 @@
         <v>0</v>
       </c>
       <c r="AU140" s="17">
-        <v>0</v>
+        <v>44320</v>
       </c>
       <c r="AV140" s="17">
-        <v>44320</v>
+        <v>0</v>
       </c>
       <c r="AW140" s="17">
         <v>0</v>
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B141" s="18" t="s">
         <v>106</v>
       </c>
@@ -20564,7 +20564,7 @@
       <c r="BA141" s="19"/>
       <c r="BB141" s="19"/>
     </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B142" s="16" t="s">
         <v>93</v>
       </c>
@@ -20626,8 +20626,8 @@
       <c r="V142" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W142" s="17" t="s">
-        <v>58</v>
+      <c r="W142" s="17">
+        <v>0</v>
       </c>
       <c r="X142" s="17">
         <v>0</v>
@@ -20723,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>107</v>
       </c>
@@ -20780,7 +20780,7 @@
       <c r="BA143" s="9"/>
       <c r="BB143" s="9"/>
     </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>56</v>
       </c>
@@ -20911,11 +20911,11 @@
       <c r="AS144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT144" s="11" t="s">
-        <v>58</v>
+      <c r="AT144" s="11">
+        <v>-188</v>
       </c>
       <c r="AU144" s="11">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AV144" s="11">
         <v>0</v>
@@ -20939,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
         <v>62</v>
       </c>
@@ -21085,20 +21085,20 @@
       <c r="AX145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY145" s="13" t="s">
-        <v>58</v>
+      <c r="AY145" s="13">
+        <v>-1102</v>
       </c>
       <c r="AZ145" s="13">
-        <v>-1102</v>
+        <v>0</v>
       </c>
       <c r="BA145" s="13">
-        <v>0</v>
+        <v>-641</v>
       </c>
       <c r="BB145" s="13">
-        <v>-641</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B146" s="16" t="s">
         <v>101</v>
       </c>
@@ -21160,8 +21160,8 @@
       <c r="V146" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W146" s="17" t="s">
-        <v>58</v>
+      <c r="W146" s="17">
+        <v>0</v>
       </c>
       <c r="X146" s="17">
         <v>0</v>
@@ -21230,10 +21230,10 @@
         <v>0</v>
       </c>
       <c r="AT146" s="17">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="AU146" s="17">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AV146" s="17">
         <v>0</v>
@@ -21245,19 +21245,19 @@
         <v>0</v>
       </c>
       <c r="AY146" s="17">
-        <v>0</v>
+        <v>-1102</v>
       </c>
       <c r="AZ146" s="17">
-        <v>-1102</v>
+        <v>0</v>
       </c>
       <c r="BA146" s="17">
-        <v>0</v>
+        <v>-641</v>
       </c>
       <c r="BB146" s="17">
-        <v>-641</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
         <v>108</v>
       </c>
@@ -21314,7 +21314,7 @@
       <c r="BA147" s="9"/>
       <c r="BB147" s="9"/>
     </row>
-    <row r="148" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
         <v>109</v>
       </c>
@@ -21376,8 +21376,8 @@
       <c r="V148" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W148" s="11" t="s">
-        <v>58</v>
+      <c r="W148" s="11">
+        <v>0</v>
       </c>
       <c r="X148" s="11">
         <v>0</v>
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
         <v>94</v>
       </c>
@@ -21534,103 +21534,103 @@
         <v>0</v>
       </c>
       <c r="W149" s="15">
-        <v>0</v>
+        <v>87563</v>
       </c>
       <c r="X149" s="15">
-        <v>87563</v>
+        <v>104990</v>
       </c>
       <c r="Y149" s="15">
-        <v>104990</v>
+        <v>94731</v>
       </c>
       <c r="Z149" s="15">
-        <v>94731</v>
+        <v>91432</v>
       </c>
       <c r="AA149" s="15">
-        <v>91432</v>
+        <v>100309</v>
       </c>
       <c r="AB149" s="15">
-        <v>100309</v>
+        <v>94749</v>
       </c>
       <c r="AC149" s="15">
-        <v>94749</v>
+        <v>92156</v>
       </c>
       <c r="AD149" s="15">
-        <v>92156</v>
+        <v>84106</v>
       </c>
       <c r="AE149" s="15">
-        <v>84106</v>
+        <v>88799</v>
       </c>
       <c r="AF149" s="15">
-        <v>88799</v>
+        <v>41240</v>
       </c>
       <c r="AG149" s="15">
-        <v>41240</v>
+        <v>90852</v>
       </c>
       <c r="AH149" s="15">
-        <v>90852</v>
+        <v>85088</v>
       </c>
       <c r="AI149" s="15">
-        <v>85088</v>
+        <v>96397</v>
       </c>
       <c r="AJ149" s="15">
-        <v>96397</v>
+        <v>94242</v>
       </c>
       <c r="AK149" s="15">
-        <v>94242</v>
+        <v>141474</v>
       </c>
       <c r="AL149" s="15">
-        <v>141474</v>
+        <v>126716</v>
       </c>
       <c r="AM149" s="15">
-        <v>126716</v>
+        <v>158442</v>
       </c>
       <c r="AN149" s="15">
-        <v>158442</v>
+        <v>185011</v>
       </c>
       <c r="AO149" s="15">
-        <v>185011</v>
+        <v>191780</v>
       </c>
       <c r="AP149" s="15">
-        <v>191780</v>
+        <v>187031</v>
       </c>
       <c r="AQ149" s="15">
-        <v>187031</v>
+        <v>234559</v>
       </c>
       <c r="AR149" s="15">
-        <v>234559</v>
+        <v>109958</v>
       </c>
       <c r="AS149" s="15">
-        <v>109958</v>
+        <v>229367</v>
       </c>
       <c r="AT149" s="15">
-        <v>229367</v>
+        <v>251136</v>
       </c>
       <c r="AU149" s="15">
-        <v>251136</v>
+        <v>255798</v>
       </c>
       <c r="AV149" s="15">
-        <v>255798</v>
+        <v>256709</v>
       </c>
       <c r="AW149" s="15">
-        <v>256709</v>
+        <v>267106</v>
       </c>
       <c r="AX149" s="15">
-        <v>267106</v>
+        <v>253345</v>
       </c>
       <c r="AY149" s="15">
-        <v>253345</v>
+        <v>253123</v>
       </c>
       <c r="AZ149" s="15">
-        <v>253123</v>
+        <v>254511</v>
       </c>
       <c r="BA149" s="15">
-        <v>254511</v>
+        <v>284726</v>
       </c>
       <c r="BB149" s="15">
-        <v>284726</v>
+        <v>246296</v>
       </c>
     </row>
-    <row r="150" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -21685,7 +21685,7 @@
       <c r="BA150" s="1"/>
       <c r="BB150" s="1"/>
     </row>
-    <row r="151" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -21740,7 +21740,7 @@
       <c r="BA151" s="1"/>
       <c r="BB151" s="1"/>
     </row>
-    <row r="152" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -21795,7 +21795,7 @@
       <c r="BA152" s="1"/>
       <c r="BB152" s="1"/>
     </row>
-    <row r="153" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
         <v>110</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -22007,7 +22007,7 @@
       <c r="BA154" s="1"/>
       <c r="BB154" s="1"/>
     </row>
-    <row r="155" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
         <v>111</v>
       </c>
@@ -22064,7 +22064,7 @@
       <c r="BA155" s="9"/>
       <c r="BB155" s="9"/>
     </row>
-    <row r="156" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
         <v>56</v>
       </c>
@@ -22126,104 +22126,104 @@
       <c r="V156" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W156" s="11" t="s">
-        <v>58</v>
+      <c r="W156" s="11">
+        <v>359444444</v>
       </c>
       <c r="X156" s="11">
-        <v>359444444</v>
+        <v>426606061</v>
       </c>
       <c r="Y156" s="11">
-        <v>426606061</v>
+        <v>386700000</v>
       </c>
       <c r="Z156" s="11">
-        <v>386700000</v>
+        <v>387666667</v>
       </c>
       <c r="AA156" s="11">
-        <v>387666667</v>
+        <v>484733333</v>
       </c>
       <c r="AB156" s="11">
-        <v>484733333</v>
+        <v>477050000</v>
       </c>
       <c r="AC156" s="11">
-        <v>477050000</v>
+        <v>492944444</v>
       </c>
       <c r="AD156" s="11">
-        <v>492944444</v>
+        <v>545375000</v>
       </c>
       <c r="AE156" s="11">
-        <v>545375000</v>
+        <v>659978723</v>
       </c>
       <c r="AF156" s="11">
-        <v>659978723</v>
+        <v>696000000</v>
       </c>
       <c r="AG156" s="11">
-        <v>696000000</v>
+        <v>706680000</v>
       </c>
       <c r="AH156" s="11">
-        <v>706680000</v>
+        <v>644696970</v>
       </c>
       <c r="AI156" s="11">
-        <v>644696970</v>
+        <v>668475000</v>
       </c>
       <c r="AJ156" s="11">
-        <v>668475000</v>
+        <v>557906977</v>
       </c>
       <c r="AK156" s="11">
-        <v>557906977</v>
+        <v>826117647</v>
       </c>
       <c r="AL156" s="11">
-        <v>826117647</v>
+        <v>873666667</v>
       </c>
       <c r="AM156" s="11">
-        <v>873666667</v>
+        <v>797074074</v>
       </c>
       <c r="AN156" s="11">
-        <v>797074074</v>
+        <v>843158730</v>
       </c>
       <c r="AO156" s="11">
-        <v>843158730</v>
+        <v>871403846</v>
       </c>
       <c r="AP156" s="11">
-        <v>871403846</v>
+        <v>749272727</v>
       </c>
       <c r="AQ156" s="11">
-        <v>749272727</v>
+        <v>713333333</v>
       </c>
       <c r="AR156" s="11">
-        <v>713333333</v>
+        <v>695500000</v>
       </c>
       <c r="AS156" s="11">
-        <v>695500000</v>
+        <v>726100000</v>
       </c>
       <c r="AT156" s="11">
-        <v>726100000</v>
+        <v>732636364</v>
       </c>
       <c r="AU156" s="11">
-        <v>732636364</v>
+        <v>773857143</v>
       </c>
       <c r="AV156" s="11">
-        <v>773857143</v>
+        <v>782707317</v>
       </c>
       <c r="AW156" s="11">
-        <v>782707317</v>
+        <v>798269841</v>
       </c>
       <c r="AX156" s="11">
-        <v>798269841</v>
+        <v>842250000</v>
       </c>
       <c r="AY156" s="11">
-        <v>842250000</v>
+        <v>969966667</v>
       </c>
       <c r="AZ156" s="11">
-        <v>969966667</v>
+        <v>793212766</v>
       </c>
       <c r="BA156" s="11">
-        <v>793212766</v>
+        <v>1124437500</v>
       </c>
       <c r="BB156" s="11">
-        <v>1124437500</v>
+        <v>1272545455</v>
       </c>
     </row>
-    <row r="157" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
         <v>59</v>
       </c>
@@ -22285,104 +22285,104 @@
       <c r="V157" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W157" s="13" t="s">
-        <v>58</v>
+      <c r="W157" s="13">
+        <v>48714286</v>
       </c>
       <c r="X157" s="13">
-        <v>48714286</v>
+        <v>67850000</v>
       </c>
       <c r="Y157" s="13">
-        <v>67850000</v>
+        <v>53833333</v>
       </c>
       <c r="Z157" s="13">
-        <v>53833333</v>
+        <v>83631579</v>
       </c>
       <c r="AA157" s="13">
-        <v>83631579</v>
+        <v>96750000</v>
       </c>
       <c r="AB157" s="13">
-        <v>96750000</v>
+        <v>107666667</v>
       </c>
       <c r="AC157" s="13">
-        <v>107666667</v>
+        <v>71416667</v>
       </c>
       <c r="AD157" s="13">
-        <v>71416667</v>
+        <v>77461538</v>
       </c>
       <c r="AE157" s="13">
-        <v>77461538</v>
+        <v>109428571</v>
       </c>
       <c r="AF157" s="13">
-        <v>109428571</v>
+        <v>83000000</v>
       </c>
       <c r="AG157" s="13">
-        <v>83000000</v>
+        <v>117538462</v>
       </c>
       <c r="AH157" s="13">
-        <v>117538462</v>
+        <v>134608696</v>
       </c>
       <c r="AI157" s="13">
-        <v>134608696</v>
+        <v>198833333</v>
       </c>
       <c r="AJ157" s="13">
-        <v>198833333</v>
-      </c>
-      <c r="AK157" s="13">
         <v>353000000</v>
       </c>
-      <c r="AL157" s="13" t="s">
-        <v>58</v>
+      <c r="AK157" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL157" s="13">
+        <v>197000000</v>
       </c>
       <c r="AM157" s="13">
-        <v>197000000</v>
+        <v>227000000</v>
       </c>
       <c r="AN157" s="13">
-        <v>227000000</v>
+        <v>182000000</v>
       </c>
       <c r="AO157" s="13">
-        <v>182000000</v>
-      </c>
-      <c r="AP157" s="13">
         <v>144750000</v>
       </c>
+      <c r="AP157" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ157" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR157" s="13" t="s">
-        <v>58</v>
+      <c r="AR157" s="13">
+        <v>250000000</v>
       </c>
       <c r="AS157" s="13">
-        <v>250000000</v>
+        <v>263800000</v>
       </c>
       <c r="AT157" s="13">
-        <v>263800000</v>
+        <v>290000000</v>
       </c>
       <c r="AU157" s="13">
-        <v>290000000</v>
+        <v>325000000</v>
       </c>
       <c r="AV157" s="13">
-        <v>325000000</v>
+        <v>168166667</v>
       </c>
       <c r="AW157" s="13">
-        <v>168166667</v>
-      </c>
-      <c r="AX157" s="13">
         <v>207000000</v>
       </c>
-      <c r="AY157" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ157" s="13">
+      <c r="AX157" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY157" s="13">
         <v>343000000</v>
       </c>
-      <c r="BA157" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB157" s="13">
+      <c r="AZ157" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA157" s="13">
         <v>423500000</v>
       </c>
+      <c r="BB157" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="158" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
         <v>60</v>
       </c>
@@ -22489,59 +22489,59 @@
       <c r="AK158" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL158" s="11" t="s">
-        <v>58</v>
+      <c r="AL158" s="11">
+        <v>602500000</v>
       </c>
       <c r="AM158" s="11">
-        <v>602500000</v>
-      </c>
-      <c r="AN158" s="11">
         <v>552000000</v>
       </c>
-      <c r="AO158" s="11" t="s">
-        <v>58</v>
+      <c r="AN158" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO158" s="11">
+        <v>552857143</v>
       </c>
       <c r="AP158" s="11">
-        <v>552857143</v>
+        <v>586000000</v>
       </c>
       <c r="AQ158" s="11">
-        <v>586000000</v>
+        <v>599000000</v>
       </c>
       <c r="AR158" s="11">
-        <v>599000000</v>
+        <v>619571429</v>
       </c>
       <c r="AS158" s="11">
-        <v>619571429</v>
+        <v>578250000</v>
       </c>
       <c r="AT158" s="11">
-        <v>578250000</v>
+        <v>657800000</v>
       </c>
       <c r="AU158" s="11">
-        <v>657800000</v>
+        <v>643181818</v>
       </c>
       <c r="AV158" s="11">
-        <v>643181818</v>
+        <v>744833333</v>
       </c>
       <c r="AW158" s="11">
-        <v>744833333</v>
+        <v>555833333</v>
       </c>
       <c r="AX158" s="11">
-        <v>555833333</v>
+        <v>505096774</v>
       </c>
       <c r="AY158" s="11">
-        <v>505096774</v>
+        <v>585384615</v>
       </c>
       <c r="AZ158" s="11">
-        <v>585384615</v>
-      </c>
-      <c r="BA158" s="11">
         <v>800550000</v>
       </c>
+      <c r="BA158" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BB158" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
         <v>62</v>
       </c>
@@ -22603,104 +22603,104 @@
       <c r="V159" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W159" s="13" t="s">
-        <v>58</v>
+      <c r="W159" s="13">
+        <v>319898551</v>
       </c>
       <c r="X159" s="13">
-        <v>319898551</v>
+        <v>343692308</v>
       </c>
       <c r="Y159" s="13">
-        <v>343692308</v>
+        <v>317564815</v>
       </c>
       <c r="Z159" s="13">
-        <v>317564815</v>
+        <v>330333333</v>
       </c>
       <c r="AA159" s="13">
-        <v>330333333</v>
+        <v>386906977</v>
       </c>
       <c r="AB159" s="13">
-        <v>386906977</v>
+        <v>406883117</v>
       </c>
       <c r="AC159" s="13">
-        <v>406883117</v>
+        <v>431187500</v>
       </c>
       <c r="AD159" s="13">
-        <v>431187500</v>
+        <v>440580645</v>
       </c>
       <c r="AE159" s="13">
-        <v>440580645</v>
+        <v>526758621</v>
       </c>
       <c r="AF159" s="13">
-        <v>526758621</v>
+        <v>557068182</v>
       </c>
       <c r="AG159" s="13">
-        <v>557068182</v>
+        <v>573692308</v>
       </c>
       <c r="AH159" s="13">
-        <v>573692308</v>
+        <v>547852459</v>
       </c>
       <c r="AI159" s="13">
-        <v>547852459</v>
+        <v>554820513</v>
       </c>
       <c r="AJ159" s="13">
-        <v>554820513</v>
+        <v>578666667</v>
       </c>
       <c r="AK159" s="13">
-        <v>578666667</v>
+        <v>592741176</v>
       </c>
       <c r="AL159" s="13">
-        <v>592741176</v>
+        <v>593728261</v>
       </c>
       <c r="AM159" s="13">
-        <v>593728261</v>
+        <v>623609091</v>
       </c>
       <c r="AN159" s="13">
-        <v>623609091</v>
+        <v>606145078</v>
       </c>
       <c r="AO159" s="13">
-        <v>606145078</v>
+        <v>611198347</v>
       </c>
       <c r="AP159" s="13">
-        <v>611198347</v>
+        <v>583151163</v>
       </c>
       <c r="AQ159" s="13">
-        <v>583151163</v>
+        <v>578642105</v>
       </c>
       <c r="AR159" s="13">
-        <v>578642105</v>
+        <v>594000000</v>
       </c>
       <c r="AS159" s="13">
-        <v>594000000</v>
+        <v>605825397</v>
       </c>
       <c r="AT159" s="13">
-        <v>605825397</v>
+        <v>628656863</v>
       </c>
       <c r="AU159" s="13">
-        <v>628656863</v>
+        <v>677097087</v>
       </c>
       <c r="AV159" s="13">
-        <v>677097087</v>
+        <v>681015504</v>
       </c>
       <c r="AW159" s="13">
-        <v>681015504</v>
+        <v>686398773</v>
       </c>
       <c r="AX159" s="13">
-        <v>686398773</v>
+        <v>665613208</v>
       </c>
       <c r="AY159" s="13">
-        <v>665613208</v>
+        <v>667084034</v>
       </c>
       <c r="AZ159" s="13">
-        <v>667084034</v>
+        <v>642175439</v>
       </c>
       <c r="BA159" s="13">
-        <v>642175439</v>
+        <v>669600000</v>
       </c>
       <c r="BB159" s="13">
-        <v>669600000</v>
+        <v>674690722</v>
       </c>
     </row>
-    <row r="160" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>63</v>
       </c>
@@ -22762,104 +22762,104 @@
       <c r="V160" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W160" s="11" t="s">
-        <v>58</v>
+      <c r="W160" s="11">
+        <v>324483333</v>
       </c>
       <c r="X160" s="11">
-        <v>324483333</v>
+        <v>398675676</v>
       </c>
       <c r="Y160" s="11">
-        <v>398675676</v>
+        <v>330611111</v>
       </c>
       <c r="Z160" s="11">
-        <v>330611111</v>
+        <v>400402299</v>
       </c>
       <c r="AA160" s="11">
-        <v>400402299</v>
+        <v>439666667</v>
       </c>
       <c r="AB160" s="11">
-        <v>439666667</v>
+        <v>478531250</v>
       </c>
       <c r="AC160" s="11">
-        <v>478531250</v>
+        <v>501843750</v>
       </c>
       <c r="AD160" s="11">
-        <v>501843750</v>
+        <v>520933333</v>
       </c>
       <c r="AE160" s="11">
-        <v>520933333</v>
+        <v>589794118</v>
       </c>
       <c r="AF160" s="11">
-        <v>589794118</v>
+        <v>721375000</v>
       </c>
       <c r="AG160" s="11">
-        <v>721375000</v>
+        <v>691148148</v>
       </c>
       <c r="AH160" s="11">
-        <v>691148148</v>
+        <v>593375000</v>
       </c>
       <c r="AI160" s="11">
-        <v>593375000</v>
+        <v>650400000</v>
       </c>
       <c r="AJ160" s="11">
-        <v>650400000</v>
+        <v>669533333</v>
       </c>
       <c r="AK160" s="11">
-        <v>669533333</v>
+        <v>664551724</v>
       </c>
       <c r="AL160" s="11">
-        <v>664551724</v>
+        <v>676360000</v>
       </c>
       <c r="AM160" s="11">
-        <v>676360000</v>
+        <v>709352941</v>
       </c>
       <c r="AN160" s="11">
-        <v>709352941</v>
+        <v>727100000</v>
       </c>
       <c r="AO160" s="11">
-        <v>727100000</v>
+        <v>687505051</v>
       </c>
       <c r="AP160" s="11">
-        <v>687505051</v>
+        <v>691850746</v>
       </c>
       <c r="AQ160" s="11">
-        <v>691850746</v>
+        <v>720607143</v>
       </c>
       <c r="AR160" s="11">
-        <v>720607143</v>
+        <v>720625000</v>
       </c>
       <c r="AS160" s="11">
-        <v>720625000</v>
+        <v>760571429</v>
       </c>
       <c r="AT160" s="11">
-        <v>760571429</v>
+        <v>796333333</v>
       </c>
       <c r="AU160" s="11">
-        <v>796333333</v>
+        <v>679687500</v>
       </c>
       <c r="AV160" s="11">
-        <v>679687500</v>
+        <v>862566667</v>
       </c>
       <c r="AW160" s="11">
-        <v>862566667</v>
+        <v>851718750</v>
       </c>
       <c r="AX160" s="11">
-        <v>851718750</v>
+        <v>860894737</v>
       </c>
       <c r="AY160" s="11">
-        <v>860894737</v>
+        <v>866740741</v>
       </c>
       <c r="AZ160" s="11">
-        <v>866740741</v>
+        <v>864129032</v>
       </c>
       <c r="BA160" s="11">
-        <v>864129032</v>
+        <v>862189189</v>
       </c>
       <c r="BB160" s="11">
-        <v>862189189</v>
+        <v>876259259</v>
       </c>
     </row>
-    <row r="161" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
         <v>65</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
         <v>67</v>
       </c>
@@ -23089,12 +23089,12 @@
       <c r="Y162" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z162" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA162" s="11">
+      <c r="Z162" s="11">
         <v>356400000</v>
       </c>
+      <c r="AA162" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB162" s="11" t="s">
         <v>58</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
         <v>68</v>
       </c>
@@ -23254,54 +23254,54 @@
       <c r="AA163" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB163" s="13" t="s">
-        <v>58</v>
+      <c r="AB163" s="13">
+        <v>277862069</v>
       </c>
       <c r="AC163" s="13">
-        <v>277862069</v>
+        <v>280395062</v>
       </c>
       <c r="AD163" s="13">
-        <v>280395062</v>
+        <v>280514286</v>
       </c>
       <c r="AE163" s="13">
-        <v>280514286</v>
+        <v>278652174</v>
       </c>
       <c r="AF163" s="13">
-        <v>278652174</v>
+        <v>274750000</v>
       </c>
       <c r="AG163" s="13">
-        <v>274750000</v>
+        <v>320000000</v>
       </c>
       <c r="AH163" s="13">
-        <v>320000000</v>
+        <v>346250000</v>
       </c>
       <c r="AI163" s="13">
-        <v>346250000</v>
+        <v>420034483</v>
       </c>
       <c r="AJ163" s="13">
-        <v>420034483</v>
+        <v>396333333</v>
       </c>
       <c r="AK163" s="13">
-        <v>396333333</v>
+        <v>399750000</v>
       </c>
       <c r="AL163" s="13">
-        <v>399750000</v>
+        <v>450000000</v>
       </c>
       <c r="AM163" s="13">
-        <v>450000000</v>
-      </c>
-      <c r="AN163" s="13">
         <v>496147059</v>
       </c>
+      <c r="AN163" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO163" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP163" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ163" s="13">
+      <c r="AP163" s="13">
         <v>611000000</v>
       </c>
+      <c r="AQ163" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR163" s="13" t="s">
         <v>58</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
         <v>69</v>
       </c>
@@ -23401,15 +23401,15 @@
       <c r="W164" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X164" s="11" t="s">
-        <v>58</v>
+      <c r="X164" s="11">
+        <v>310000000</v>
       </c>
       <c r="Y164" s="11">
-        <v>310000000</v>
-      </c>
-      <c r="Z164" s="11">
         <v>320000000</v>
       </c>
+      <c r="Z164" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA164" s="11" t="s">
         <v>58</v>
       </c>
@@ -23419,12 +23419,12 @@
       <c r="AC164" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD164" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE164" s="11">
+      <c r="AD164" s="11">
         <v>270000000</v>
       </c>
+      <c r="AE164" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AF164" s="11" t="s">
         <v>58</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B165" s="12" t="s">
         <v>72</v>
       </c>
@@ -23557,14 +23557,14 @@
       <c r="V165" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W165" s="13" t="s">
-        <v>58</v>
+      <c r="W165" s="13">
+        <v>200641026</v>
       </c>
       <c r="X165" s="13">
-        <v>200641026</v>
+        <v>211679389</v>
       </c>
       <c r="Y165" s="13">
-        <v>211679389</v>
+        <v>190000000</v>
       </c>
       <c r="Z165" s="13">
         <v>190000000</v>
@@ -23572,8 +23572,8 @@
       <c r="AA165" s="13">
         <v>190000000</v>
       </c>
-      <c r="AB165" s="13">
-        <v>190000000</v>
+      <c r="AB165" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC165" s="13" t="s">
         <v>58</v>
@@ -23654,7 +23654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
         <v>75</v>
       </c>
@@ -23716,24 +23716,24 @@
       <c r="V166" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W166" s="11" t="s">
-        <v>58</v>
+      <c r="W166" s="11">
+        <v>470000000</v>
       </c>
       <c r="X166" s="11">
+        <v>474478261</v>
+      </c>
+      <c r="Y166" s="11">
         <v>470000000</v>
       </c>
-      <c r="Y166" s="11">
-        <v>474478261</v>
-      </c>
       <c r="Z166" s="11">
-        <v>470000000</v>
+        <v>517291667</v>
       </c>
       <c r="AA166" s="11">
-        <v>517291667</v>
-      </c>
-      <c r="AB166" s="11">
         <v>556545455</v>
       </c>
+      <c r="AB166" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC166" s="11" t="s">
         <v>58</v>
       </c>
@@ -23813,7 +23813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B167" s="12" t="s">
         <v>76</v>
       </c>
@@ -23875,24 +23875,24 @@
       <c r="V167" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W167" s="13" t="s">
-        <v>58</v>
+      <c r="W167" s="13">
+        <v>520000000</v>
       </c>
       <c r="X167" s="13">
-        <v>520000000</v>
+        <v>520043478</v>
       </c>
       <c r="Y167" s="13">
-        <v>520043478</v>
+        <v>519947368</v>
       </c>
       <c r="Z167" s="13">
-        <v>519947368</v>
+        <v>545407407</v>
       </c>
       <c r="AA167" s="13">
-        <v>545407407</v>
-      </c>
-      <c r="AB167" s="13">
         <v>572428571</v>
       </c>
+      <c r="AB167" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC167" s="13" t="s">
         <v>58</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
         <v>77</v>
       </c>
@@ -24046,15 +24046,15 @@
       <c r="Z168" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA168" s="11" t="s">
-        <v>58</v>
+      <c r="AA168" s="11">
+        <v>593487179</v>
       </c>
       <c r="AB168" s="11">
-        <v>593487179</v>
-      </c>
-      <c r="AC168" s="11">
         <v>589632653</v>
       </c>
+      <c r="AC168" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD168" s="11" t="s">
         <v>58</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
         <v>78</v>
       </c>
@@ -24250,47 +24250,47 @@
       <c r="AO169" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP169" s="13" t="s">
-        <v>58</v>
+      <c r="AP169" s="13">
+        <v>899836066</v>
       </c>
       <c r="AQ169" s="13">
-        <v>899836066</v>
+        <v>963130435</v>
       </c>
       <c r="AR169" s="13">
-        <v>963130435</v>
+        <v>990428571</v>
       </c>
       <c r="AS169" s="13">
-        <v>990428571</v>
+        <v>995088889</v>
       </c>
       <c r="AT169" s="13">
-        <v>995088889</v>
+        <v>1047033333</v>
       </c>
       <c r="AU169" s="13">
-        <v>1047033333</v>
+        <v>1062722222</v>
       </c>
       <c r="AV169" s="13">
-        <v>1062722222</v>
+        <v>1075500000</v>
       </c>
       <c r="AW169" s="13">
-        <v>1075500000</v>
-      </c>
-      <c r="AX169" s="13">
         <v>1111423077</v>
       </c>
+      <c r="AX169" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY169" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ169" s="13" t="s">
-        <v>58</v>
+      <c r="AZ169" s="13">
+        <v>1135967742</v>
       </c>
       <c r="BA169" s="13">
-        <v>1135967742</v>
-      </c>
-      <c r="BB169" s="13">
         <v>1267062500</v>
       </c>
+      <c r="BB169" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="170" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
         <v>79</v>
       </c>
@@ -24409,47 +24409,47 @@
       <c r="AO170" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP170" s="11" t="s">
-        <v>58</v>
+      <c r="AP170" s="11">
+        <v>874434783</v>
       </c>
       <c r="AQ170" s="11">
-        <v>874434783</v>
+        <v>916945455</v>
       </c>
       <c r="AR170" s="11">
-        <v>916945455</v>
+        <v>936147059</v>
       </c>
       <c r="AS170" s="11">
-        <v>936147059</v>
+        <v>957149254</v>
       </c>
       <c r="AT170" s="11">
-        <v>957149254</v>
-      </c>
-      <c r="AU170" s="11">
         <v>1003862069</v>
       </c>
+      <c r="AU170" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV170" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW170" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX170" s="11" t="s">
-        <v>58</v>
+      <c r="AX170" s="11">
+        <v>1120000000</v>
       </c>
       <c r="AY170" s="11">
-        <v>1120000000</v>
+        <v>1149727273</v>
       </c>
       <c r="AZ170" s="11">
-        <v>1149727273</v>
+        <v>1133608696</v>
       </c>
       <c r="BA170" s="11">
-        <v>1133608696</v>
+        <v>1226500000</v>
       </c>
       <c r="BB170" s="11">
-        <v>1226500000</v>
+        <v>1303000000</v>
       </c>
     </row>
-    <row r="171" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>81</v>
       </c>
@@ -24580,35 +24580,35 @@
       <c r="AS171" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT171" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU171" s="13">
+      <c r="AT171" s="13">
         <v>540750000</v>
       </c>
+      <c r="AU171" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV171" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AW171" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX171" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY171" s="13">
+      <c r="AX171" s="13">
         <v>507547945</v>
       </c>
-      <c r="AZ171" s="13" t="s">
-        <v>58</v>
+      <c r="AY171" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ171" s="13">
+        <v>798956522</v>
       </c>
       <c r="BA171" s="13">
-        <v>798956522</v>
-      </c>
-      <c r="BB171" s="13">
         <v>791625000</v>
       </c>
+      <c r="BB171" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="172" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
         <v>82</v>
       </c>
@@ -24739,12 +24739,12 @@
       <c r="AS172" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT172" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU172" s="11">
+      <c r="AT172" s="11">
         <v>531208333</v>
       </c>
+      <c r="AU172" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV172" s="11" t="s">
         <v>58</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
         <v>83</v>
       </c>
@@ -24904,12 +24904,12 @@
       <c r="AU173" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV173" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW173" s="13">
+      <c r="AV173" s="13">
         <v>618958904</v>
       </c>
+      <c r="AW173" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX173" s="13" t="s">
         <v>58</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
         <v>84</v>
       </c>
@@ -25066,26 +25066,26 @@
       <c r="AV174" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW174" s="11" t="s">
-        <v>58</v>
+      <c r="AW174" s="11">
+        <v>1067238095</v>
       </c>
       <c r="AX174" s="11">
-        <v>1067238095</v>
+        <v>1128600000</v>
       </c>
       <c r="AY174" s="11">
-        <v>1128600000</v>
+        <v>1146562500</v>
       </c>
       <c r="AZ174" s="11">
-        <v>1146562500</v>
+        <v>1150380952</v>
       </c>
       <c r="BA174" s="11">
-        <v>1150380952</v>
+        <v>1248909091</v>
       </c>
       <c r="BB174" s="11">
-        <v>1248909091</v>
+        <v>1264409091</v>
       </c>
     </row>
-    <row r="175" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
         <v>85</v>
       </c>
@@ -25231,20 +25231,20 @@
       <c r="AX175" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY175" s="13" t="s">
-        <v>58</v>
+      <c r="AY175" s="13">
+        <v>1148279070</v>
       </c>
       <c r="AZ175" s="13">
-        <v>1148279070</v>
+        <v>1145347826</v>
       </c>
       <c r="BA175" s="13">
-        <v>1145347826</v>
+        <v>1295363636</v>
       </c>
       <c r="BB175" s="13">
-        <v>1295363636</v>
+        <v>1254225000</v>
       </c>
     </row>
-    <row r="176" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
         <v>86</v>
       </c>
@@ -25390,20 +25390,20 @@
       <c r="AX176" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY176" s="11" t="s">
-        <v>58</v>
+      <c r="AY176" s="11">
+        <v>813024390</v>
       </c>
       <c r="AZ176" s="11">
-        <v>813024390</v>
+        <v>864200000</v>
       </c>
       <c r="BA176" s="11">
-        <v>864200000</v>
+        <v>857750000</v>
       </c>
       <c r="BB176" s="11">
-        <v>857750000</v>
+        <v>915400000</v>
       </c>
     </row>
-    <row r="177" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
         <v>87</v>
       </c>
@@ -25552,17 +25552,17 @@
       <c r="AY177" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ177" s="13" t="s">
-        <v>58</v>
+      <c r="AZ177" s="13">
+        <v>1113666667</v>
       </c>
       <c r="BA177" s="13">
-        <v>1113666667</v>
-      </c>
-      <c r="BB177" s="13">
         <v>801000000</v>
       </c>
+      <c r="BB177" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="178" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
         <v>88</v>
       </c>
@@ -25714,14 +25714,14 @@
       <c r="AZ178" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA178" s="11" t="s">
-        <v>58</v>
+      <c r="BA178" s="11">
+        <v>1424652174</v>
       </c>
       <c r="BB178" s="11">
-        <v>1424652174</v>
+        <v>1429952381</v>
       </c>
     </row>
-    <row r="179" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
         <v>113</v>
       </c>
@@ -25778,7 +25778,7 @@
       <c r="BA179" s="9"/>
       <c r="BB179" s="9"/>
     </row>
-    <row r="180" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
         <v>56</v>
       </c>
@@ -25912,12 +25912,12 @@
       <c r="AT180" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU180" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV180" s="11">
+      <c r="AU180" s="11">
         <v>1013875000</v>
       </c>
+      <c r="AV180" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW180" s="11" t="s">
         <v>58</v>
       </c>
@@ -25937,7 +25937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
         <v>62</v>
       </c>
@@ -26071,11 +26071,11 @@
       <c r="AT181" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU181" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV181" s="13">
+      <c r="AU181" s="13">
         <v>754354167</v>
+      </c>
+      <c r="AV181" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW181" s="13" t="s">
         <v>58</v>
